--- a/Main_files/Result_allmodels.xlsx
+++ b/Main_files/Result_allmodels.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Info" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="586" uniqueCount="386">
   <si>
     <t>model_name</t>
   </si>
@@ -484,253 +483,82 @@
     <t>&gt;modfile copied&gt;steadystatefile_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
+Error in: run&gt;mmb_loop_Max&gt;dynare
   line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
+Error in: run&gt;mmb_loop_Max
   line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
   </si>
   <si>
     <t>Error: Unrecognized field name "ys". (Error ID: "MATLAB:nonExistentField")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
   line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run_files&gt;mmb_loop_Max
+Error in: run&gt;mmb_loop_Max
   line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+  </si>
+  <si>
+    <t>Error: Unable to perform assignment because the left and right sides have a different number of elements. (Error ID: "MATLAB:matrix:singleSubscriptNumelMismatch")
+Error in: run&gt;mmb_loop_Max&gt;dyn_first_order_solver
+  line 213:         info(2) = temp'*temp;
+Error in: run&gt;mmb_loop_Max
+  line 77:      tic; for jj=1:run_time_reps; [dr,info] = dyn_first_order_solver(jacobia_,M_,oo_.dr,options_,0); end;   AMG_Results(2,1,loop_k) = toc/run_time_reps;   
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+  </si>
+  <si>
+    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
+Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+  line 19: z = repmat(oo_.dr.ys,1,klen);
+Error in: run&gt;mmb_loop_Max
+  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+  </si>
+  <si>
+    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
+Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
+Error in: run&gt;mmb_loop_Max
+  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+  </si>
+  <si>
+    <t>Error: The steady state has NaNs or Inf. (Error ID: "")
+Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
+  line 33:     error(message);
+Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
+  line 143:     print_info(info,options_.noprint, options_);
+Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver
+  line 1219: steady;
+Error in: run&gt;mmb_loop_Max&gt;dynare
+  line 310:     evalin('base',[fname '.driver']);
+Error in: run&gt;mmb_loop_Max
   line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Unable to perform assignment because the left and right sides have a different number of elements. (Error ID: "MATLAB:matrix:singleSubscriptNumelMismatch")
-Error in: run_files&gt;mmb_loop_Max&gt;dyn_first_order_solver
-  line 213:         info(2) = temp'*temp;
-Error in: run_files&gt;mmb_loop_Max
-  line 77:      tic; for jj=1:run_time_reps; [dr,info] = dyn_first_order_solver(jacobia_,M_,oo_.dr,options_,0); end;   AMG_JS_Results(2,1,loop_k) = toc/run_time_reps;   
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>Error: The steady state has NaNs or Inf. (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
-  line 33:     error(message);
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
-  line 143:     print_info(info,options_.noprint, options_);
-Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver
-  line 1219: steady;
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 310:     evalin('base',[fname '.driver']);
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run_files&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run_files&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run_files&gt;mmb_loop_Max
-  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run_files
-  line 37: mmb_loop_Max;</t>
-  </si>
-  <si>
-    <t>N/A</t>
+Error in: run
+  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
   </si>
   <si>
     <t>error_flag</t>
@@ -1291,9 +1119,6 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -1303,18 +1128,6 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -1351,45 +1164,15 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
-  </si>
-  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
-  </si>
-  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
-  </si>
-  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1399,76 +1182,7 @@
     <t>rep_comment_1</t>
   </si>
   <si>
-    <t>new steadystate file</t>
-  </si>
-  <si>
-    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
-  </si>
-  <si>
-    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
-  </si>
-  <si>
-    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
-  </si>
-  <si>
-    <t>there is another alternative policy regime version in the respective folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>2 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>3 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>manual_adaption_comment_1</t>
-  </si>
-  <si>
-    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
-  </si>
-  <si>
-    <t>deleted close all and dynare &lt;early version&gt; calls</t>
-  </si>
-  <si>
-    <t>I deleted figure closing matlab statements</t>
-  </si>
-  <si>
-    <t>I had to come up with a interest rate rule, I also hard coded the respective 2 parameters.</t>
-  </si>
-  <si>
-    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
-  </si>
-  <si>
-    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
   </si>
   <si>
     <t>error_loop_run_descr</t>
@@ -1523,7 +1237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1561,15 +1275,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
     <col min="2" max="2" width="19.42578125" customWidth="true"/>
     <col min="3" max="3" width="148.140625" customWidth="true"/>
-    <col min="4" max="4" width="144" customWidth="true"/>
+    <col min="4" max="4" width="141.28515625" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
     <col min="7" max="7" width="74.5703125" customWidth="true"/>
@@ -1604,70 +1321,70 @@
         <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>461</v>
-      </c>
       <c r="W1" s="0" t="s">
-        <v>465</v>
+        <v>380</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -1680,9 +1397,7 @@
       <c r="C2" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>193</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0">
         <v>0</v>
       </c>
@@ -1690,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1739,9 +1454,7 @@
       <c r="C3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>193</v>
-      </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="0">
         <v>0</v>
       </c>
@@ -1749,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1798,9 +1511,7 @@
       <c r="C4" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>193</v>
-      </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="0">
         <v>0</v>
       </c>
@@ -1808,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1858,7 +1569,7 @@
         <v>155</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -1867,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1888,11 +1599,11 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0" t="b">
@@ -1900,7 +1611,7 @@
       </c>
       <c r="S5" s="0"/>
       <c r="T5" s="0" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
@@ -1920,11 +1631,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0">
         <v>0</v>
       </c>
@@ -1932,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1979,11 +1688,9 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0">
         <v>0</v>
       </c>
@@ -1991,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -2038,11 +1745,9 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D8" s="0"/>
       <c r="E8" s="0">
         <v>0</v>
       </c>
@@ -2050,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -2097,11 +1802,9 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0">
         <v>0</v>
       </c>
@@ -2109,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="H9" s="0">
         <v>1</v>
@@ -2156,11 +1859,9 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0">
         <v>0</v>
       </c>
@@ -2168,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -2215,11 +1916,9 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0">
         <v>0</v>
       </c>
@@ -2227,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -2251,7 +1950,7 @@
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="R11" s="0" t="b">
         <v>0</v>
@@ -2259,7 +1958,7 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -2278,11 +1977,9 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0">
         <v>0</v>
       </c>
@@ -2290,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2337,11 +2034,9 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0">
         <v>0</v>
       </c>
@@ -2349,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -2396,11 +2091,9 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0">
         <v>0</v>
       </c>
@@ -2408,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -2455,11 +2148,9 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0">
         <v>0</v>
       </c>
@@ -2467,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -2514,11 +2205,9 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0">
         <v>0</v>
       </c>
@@ -2526,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -2573,11 +2262,9 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="0">
         <v>0</v>
       </c>
@@ -2585,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2632,11 +2319,9 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D18" s="0"/>
       <c r="E18" s="0">
         <v>0</v>
       </c>
@@ -2644,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
@@ -2665,23 +2350,23 @@
         <v>1</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="0"/>
       <c r="R18" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
@@ -2701,11 +2386,9 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D19" s="0"/>
       <c r="E19" s="0">
         <v>0</v>
       </c>
@@ -2713,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -2760,11 +2443,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D20" s="0"/>
       <c r="E20" s="0">
         <v>0</v>
       </c>
@@ -2772,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
@@ -2794,7 +2475,7 @@
       </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
@@ -2802,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>422</v>
+        <v>331</v>
       </c>
       <c r="T20" s="0"/>
       <c r="U20" s="0"/>
@@ -2823,11 +2504,9 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D21" s="0"/>
       <c r="E21" s="0">
         <v>0</v>
       </c>
@@ -2835,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -2882,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E22" s="0">
         <v>1</v>
@@ -2894,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -2925,10 +2604,10 @@
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="X22" s="0">
         <v>1</v>
@@ -2945,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E23" s="0">
         <v>1</v>
@@ -2957,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -2988,10 +2667,10 @@
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="X23" s="0">
         <v>1</v>
@@ -3008,11 +2687,9 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D24" s="0"/>
       <c r="E24" s="0">
         <v>0</v>
       </c>
@@ -3020,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -3067,11 +2744,9 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D25" s="0"/>
       <c r="E25" s="0">
         <v>0</v>
       </c>
@@ -3079,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -3126,11 +2801,9 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D26" s="0"/>
       <c r="E26" s="0">
         <v>0</v>
       </c>
@@ -3138,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -3185,11 +2858,9 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D27" s="0"/>
       <c r="E27" s="0">
         <v>0</v>
       </c>
@@ -3197,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
@@ -3244,19 +2915,17 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
@@ -3303,11 +2972,9 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D29" s="0"/>
       <c r="E29" s="0">
         <v>0</v>
       </c>
@@ -3315,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
@@ -3362,11 +3029,9 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>197</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D30" s="0"/>
       <c r="E30" s="0">
         <v>0</v>
       </c>
@@ -3374,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -3421,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="E31" s="0">
         <v>1</v>
@@ -3433,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
@@ -3455,7 +3120,7 @@
       </c>
       <c r="N31" s="0"/>
       <c r="O31" s="0" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="P31" s="0"/>
       <c r="Q31" s="0"/>
@@ -3463,15 +3128,15 @@
         <v>1</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>423</v>
+        <v>332</v>
       </c>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="s">
-        <v>463</v>
+        <v>378</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="X31" s="0">
         <v>1</v>
@@ -3488,11 +3153,9 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D32" s="0"/>
       <c r="E32" s="0">
         <v>0</v>
       </c>
@@ -3500,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="H32" s="0">
         <v>1</v>
@@ -3547,11 +3210,9 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="0">
         <v>0</v>
       </c>
@@ -3559,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="H33" s="0">
         <v>1</v>
@@ -3606,11 +3267,9 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D34" s="0"/>
       <c r="E34" s="0">
         <v>0</v>
       </c>
@@ -3618,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
@@ -3665,11 +3324,9 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D35" s="0"/>
       <c r="E35" s="0">
         <v>0</v>
       </c>
@@ -3677,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="H35" s="0">
         <v>1</v>
@@ -3724,11 +3381,9 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D36" s="0"/>
       <c r="E36" s="0">
         <v>0</v>
       </c>
@@ -3736,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -3783,11 +3438,9 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D37" s="0"/>
       <c r="E37" s="0">
         <v>0</v>
       </c>
@@ -3795,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -3842,11 +3495,9 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D38" s="0"/>
       <c r="E38" s="0">
         <v>0</v>
       </c>
@@ -3854,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="H38" s="0">
         <v>1</v>
@@ -3901,11 +3552,9 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D39" s="0"/>
       <c r="E39" s="0">
         <v>0</v>
       </c>
@@ -3913,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -3960,11 +3609,9 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D40" s="0"/>
       <c r="E40" s="0">
         <v>0</v>
       </c>
@@ -3972,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -4072,11 +3719,9 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D42" s="0"/>
       <c r="E42" s="0">
         <v>0</v>
       </c>
@@ -4084,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -4131,11 +3776,9 @@
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D43" s="0"/>
       <c r="E43" s="0">
         <v>0</v>
       </c>
@@ -4143,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="H43" s="0">
         <v>1</v>
@@ -4190,11 +3833,9 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D44" s="0"/>
       <c r="E44" s="0">
         <v>0</v>
       </c>
@@ -4202,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -4302,11 +3943,9 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D46" s="0"/>
       <c r="E46" s="0">
         <v>0</v>
       </c>
@@ -4314,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -4414,11 +4053,9 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D48" s="0"/>
       <c r="E48" s="0">
         <v>0</v>
       </c>
@@ -4426,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -4473,11 +4110,9 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D49" s="0"/>
       <c r="E49" s="0">
         <v>0</v>
       </c>
@@ -4485,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4532,11 +4167,9 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D50" s="0"/>
       <c r="E50" s="0">
         <v>0</v>
       </c>
@@ -4544,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="H50" s="0">
         <v>0</v>
@@ -4567,20 +4200,20 @@
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="R50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S50" s="0"/>
       <c r="T50" s="0" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
@@ -4599,11 +4232,9 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D51" s="0"/>
       <c r="E51" s="0">
         <v>0</v>
       </c>
@@ -4611,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -4634,20 +4265,20 @@
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="R51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S51" s="0"/>
       <c r="T51" s="0" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
@@ -4666,11 +4297,9 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D52" s="0"/>
       <c r="E52" s="0">
         <v>0</v>
       </c>
@@ -4678,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -4699,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="P52" s="0"/>
       <c r="Q52" s="0"/>
@@ -4710,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="T52" s="0"/>
       <c r="U52" s="0"/>
@@ -4731,11 +4360,9 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D53" s="0"/>
       <c r="E53" s="0">
         <v>0</v>
       </c>
@@ -4743,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="H53" s="0">
         <v>1</v>
@@ -4790,11 +4417,9 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D54" s="0"/>
       <c r="E54" s="0">
         <v>0</v>
       </c>
@@ -4802,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -4823,11 +4448,11 @@
         <v>1</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="O54" s="0"/>
       <c r="P54" s="0" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q54" s="0"/>
       <c r="R54" s="0" t="b">
@@ -4835,7 +4460,7 @@
       </c>
       <c r="S54" s="0"/>
       <c r="T54" s="0" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
@@ -4855,11 +4480,9 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D55" s="0"/>
       <c r="E55" s="0">
         <v>0</v>
       </c>
@@ -4867,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -4889,7 +4512,7 @@
       </c>
       <c r="N55" s="0"/>
       <c r="O55" s="0" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="P55" s="0"/>
       <c r="Q55" s="0"/>
@@ -4897,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>425</v>
+        <v>334</v>
       </c>
       <c r="T55" s="0"/>
       <c r="U55" s="0"/>
@@ -4918,11 +4541,9 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D56" s="0"/>
       <c r="E56" s="0">
         <v>0</v>
       </c>
@@ -4930,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -4977,11 +4598,9 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D57" s="0"/>
       <c r="E57" s="0">
         <v>0</v>
       </c>
@@ -4989,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H57" s="0">
         <v>1</v>
@@ -5010,11 +4629,11 @@
         <v>1</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -5022,7 +4641,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -5042,11 +4661,9 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D58" s="0"/>
       <c r="E58" s="0">
         <v>0</v>
       </c>
@@ -5054,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="H58" s="0">
         <v>1</v>
@@ -5085,10 +4702,10 @@
       <c r="T58" s="0"/>
       <c r="U58" s="0"/>
       <c r="V58" s="0" t="s">
-        <v>464</v>
+        <v>379</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>468</v>
+        <v>383</v>
       </c>
       <c r="X58" s="0">
         <v>1</v>
@@ -5105,11 +4722,9 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D59" s="0"/>
       <c r="E59" s="0">
         <v>0</v>
       </c>
@@ -5117,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -5140,7 +4755,7 @@
       <c r="N59" s="0"/>
       <c r="O59" s="0"/>
       <c r="P59" s="0" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0" t="b">
@@ -5148,7 +4763,7 @@
       </c>
       <c r="S59" s="0"/>
       <c r="T59" s="0" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
@@ -5168,11 +4783,9 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D60" s="0"/>
       <c r="E60" s="0">
         <v>0</v>
       </c>
@@ -5180,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -5203,7 +4816,7 @@
       <c r="N60" s="0"/>
       <c r="O60" s="0"/>
       <c r="P60" s="0" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q60" s="0"/>
       <c r="R60" s="0" t="b">
@@ -5211,7 +4824,7 @@
       </c>
       <c r="S60" s="0"/>
       <c r="T60" s="0" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
@@ -5231,11 +4844,9 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D61" s="0"/>
       <c r="E61" s="0">
         <v>0</v>
       </c>
@@ -5243,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="H61" s="0">
         <v>1</v>
@@ -5290,11 +4901,9 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D62" s="0"/>
       <c r="E62" s="0">
         <v>0</v>
       </c>
@@ -5302,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -5325,7 +4934,7 @@
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
       <c r="P62" s="0" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
@@ -5333,7 +4942,7 @@
       </c>
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
@@ -5353,11 +4962,9 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D63" s="0"/>
       <c r="E63" s="0">
         <v>0</v>
       </c>
@@ -5365,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="H63" s="0">
         <v>1</v>
@@ -5412,11 +5019,9 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D64" s="0"/>
       <c r="E64" s="0">
         <v>0</v>
       </c>
@@ -5424,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="H64" s="0">
         <v>1</v>
@@ -5445,11 +5050,11 @@
         <v>1</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="O64" s="0"/>
       <c r="P64" s="0" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="Q64" s="0"/>
       <c r="R64" s="0" t="b">
@@ -5457,7 +5062,7 @@
       </c>
       <c r="S64" s="0"/>
       <c r="T64" s="0" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
@@ -5477,11 +5082,9 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D65" s="0"/>
       <c r="E65" s="0">
         <v>0</v>
       </c>
@@ -5489,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="H65" s="0">
         <v>1</v>
@@ -5589,11 +5192,9 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D67" s="0"/>
       <c r="E67" s="0">
         <v>0</v>
       </c>
@@ -5601,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -5648,11 +5249,9 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D68" s="0"/>
       <c r="E68" s="0">
         <v>0</v>
       </c>
@@ -5660,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -5707,11 +5306,9 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D69" s="0"/>
       <c r="E69" s="0">
         <v>0</v>
       </c>
@@ -5719,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
@@ -5766,11 +5363,9 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D70" s="0"/>
       <c r="E70" s="0">
         <v>0</v>
       </c>
@@ -5778,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="H70" s="0">
         <v>0</v>
@@ -5801,7 +5396,7 @@
       <c r="N70" s="0"/>
       <c r="O70" s="0"/>
       <c r="P70" s="0" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="Q70" s="0"/>
       <c r="R70" s="0" t="b">
@@ -5809,7 +5404,7 @@
       </c>
       <c r="S70" s="0"/>
       <c r="T70" s="0" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
@@ -5829,11 +5424,9 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D71" s="0"/>
       <c r="E71" s="0">
         <v>0</v>
       </c>
@@ -5841,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="H71" s="0">
         <v>1</v>
@@ -5888,11 +5481,9 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D72" s="0"/>
       <c r="E72" s="0">
         <v>0</v>
       </c>
@@ -5900,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="H72" s="0">
         <v>0</v>
@@ -6000,11 +5591,9 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D74" s="0"/>
       <c r="E74" s="0">
         <v>0</v>
       </c>
@@ -6012,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="H74" s="0">
         <v>0</v>
@@ -6059,11 +5648,9 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D75" s="0"/>
       <c r="E75" s="0">
         <v>0</v>
       </c>
@@ -6071,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="H75" s="0">
         <v>0</v>
@@ -6094,7 +5681,7 @@
       <c r="N75" s="0"/>
       <c r="O75" s="0"/>
       <c r="P75" s="0" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="Q75" s="0"/>
       <c r="R75" s="0" t="b">
@@ -6102,7 +5689,7 @@
       </c>
       <c r="S75" s="0"/>
       <c r="T75" s="0" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="U75" s="0"/>
       <c r="V75" s="0"/>
@@ -6122,11 +5709,9 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D76" s="0"/>
       <c r="E76" s="0">
         <v>0</v>
       </c>
@@ -6134,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H76" s="0">
         <v>0</v>
@@ -6155,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="O76" s="0"/>
       <c r="P76" s="0"/>
@@ -6183,11 +5768,9 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D77" s="0"/>
       <c r="E77" s="0">
         <v>0</v>
       </c>
@@ -6195,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="H77" s="0">
         <v>1</v>
@@ -6242,11 +5825,9 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D78" s="0"/>
       <c r="E78" s="0">
         <v>0</v>
       </c>
@@ -6254,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
@@ -6301,11 +5882,9 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D79" s="0"/>
       <c r="E79" s="0">
         <v>0</v>
       </c>
@@ -6313,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="H79" s="0">
         <v>1</v>
@@ -6360,11 +5939,9 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D80" s="0"/>
       <c r="E80" s="0">
         <v>0</v>
       </c>
@@ -6372,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="H80" s="0">
         <v>1</v>
@@ -6419,11 +5996,9 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D81" s="0"/>
       <c r="E81" s="0">
         <v>0</v>
       </c>
@@ -6431,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="H81" s="0">
         <v>1</v>
@@ -6478,10 +6053,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E82" s="0">
         <v>1</v>
@@ -6490,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
@@ -6514,7 +6089,7 @@
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
       <c r="Q82" s="0" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="R82" s="0" t="b">
         <v>0</v>
@@ -6522,7 +6097,7 @@
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
       <c r="U82" s="0" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
@@ -6594,11 +6169,9 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D84" s="0"/>
       <c r="E84" s="0">
         <v>0</v>
       </c>
@@ -6606,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
@@ -6630,7 +6203,7 @@
       <c r="O84" s="0"/>
       <c r="P84" s="0"/>
       <c r="Q84" s="0" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="R84" s="0" t="b">
         <v>0</v>
@@ -6638,7 +6211,7 @@
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
       <c r="U84" s="0" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="V84" s="0"/>
       <c r="W84" s="0"/>
@@ -6710,11 +6283,9 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D86" s="0"/>
       <c r="E86" s="0">
         <v>0</v>
       </c>
@@ -6722,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="H86" s="0">
         <v>1</v>
@@ -6769,11 +6340,9 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D87" s="0"/>
       <c r="E87" s="0">
         <v>0</v>
       </c>
@@ -6781,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="H87" s="0">
         <v>1</v>
@@ -6828,11 +6397,9 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D88" s="0"/>
       <c r="E88" s="0">
         <v>0</v>
       </c>
@@ -6840,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
@@ -6887,11 +6454,9 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D89" s="0"/>
       <c r="E89" s="0">
         <v>0</v>
       </c>
@@ -6899,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
@@ -6946,11 +6511,9 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D90" s="0"/>
       <c r="E90" s="0">
         <v>0</v>
       </c>
@@ -6958,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H90" s="0">
         <v>0</v>
@@ -7005,11 +6568,9 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D91" s="0"/>
       <c r="E91" s="0">
         <v>0</v>
       </c>
@@ -7017,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
@@ -7064,11 +6625,9 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D92" s="0"/>
       <c r="E92" s="0">
         <v>0</v>
       </c>
@@ -7076,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="H92" s="0">
         <v>1</v>
@@ -7123,11 +6682,9 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D93" s="0"/>
       <c r="E93" s="0">
         <v>0</v>
       </c>
@@ -7135,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H93" s="0">
         <v>0</v>
@@ -7158,7 +6715,7 @@
       <c r="N93" s="0"/>
       <c r="O93" s="0"/>
       <c r="P93" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q93" s="0"/>
       <c r="R93" s="0" t="b">
@@ -7166,7 +6723,7 @@
       </c>
       <c r="S93" s="0"/>
       <c r="T93" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U93" s="0"/>
       <c r="V93" s="0"/>
@@ -7186,11 +6743,9 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D94" s="0"/>
       <c r="E94" s="0">
         <v>0</v>
       </c>
@@ -7198,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
@@ -7222,7 +6777,7 @@
       <c r="O94" s="0"/>
       <c r="P94" s="0"/>
       <c r="Q94" s="0" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="R94" s="0" t="b">
         <v>0</v>
@@ -7230,7 +6785,7 @@
       <c r="S94" s="0"/>
       <c r="T94" s="0"/>
       <c r="U94" s="0" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="V94" s="0"/>
       <c r="W94" s="0"/>
@@ -7249,10 +6804,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E95" s="0">
         <v>1</v>
@@ -7261,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="H95" s="0">
         <v>0</v>
@@ -7284,7 +6839,7 @@
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
       <c r="P95" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q95" s="0"/>
       <c r="R95" s="0" t="b">
@@ -7292,7 +6847,7 @@
       </c>
       <c r="S95" s="0"/>
       <c r="T95" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U95" s="0"/>
       <c r="V95" s="0"/>
@@ -7312,11 +6867,9 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D96" s="0"/>
       <c r="E96" s="0">
         <v>0</v>
       </c>
@@ -7324,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="H96" s="0">
         <v>1</v>
@@ -7371,11 +6924,9 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D97" s="0"/>
       <c r="E97" s="0">
         <v>0</v>
       </c>
@@ -7383,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="H97" s="0">
         <v>0</v>
@@ -7430,11 +6981,9 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D98" s="0"/>
       <c r="E98" s="0">
         <v>0</v>
       </c>
@@ -7442,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="H98" s="0">
         <v>0</v>
@@ -7465,7 +7014,7 @@
       <c r="N98" s="0"/>
       <c r="O98" s="0"/>
       <c r="P98" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q98" s="0"/>
       <c r="R98" s="0" t="b">
@@ -7473,7 +7022,7 @@
       </c>
       <c r="S98" s="0"/>
       <c r="T98" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U98" s="0"/>
       <c r="V98" s="0"/>
@@ -7493,11 +7042,9 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D99" s="0"/>
       <c r="E99" s="0">
         <v>0</v>
       </c>
@@ -7505,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -7527,21 +7074,21 @@
       </c>
       <c r="N99" s="0"/>
       <c r="O99" s="0" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="P99" s="0"/>
       <c r="Q99" s="0" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="R99" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T99" s="0"/>
       <c r="U99" s="0" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="V99" s="0"/>
       <c r="W99" s="0"/>
@@ -7560,11 +7107,9 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D100" s="0"/>
       <c r="E100" s="0">
         <v>0</v>
       </c>
@@ -7572,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="H100" s="0">
         <v>0</v>
@@ -7594,21 +7139,21 @@
       </c>
       <c r="N100" s="0"/>
       <c r="O100" s="0" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="P100" s="0"/>
       <c r="Q100" s="0" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="R100" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T100" s="0"/>
       <c r="U100" s="0" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="V100" s="0"/>
       <c r="W100" s="0"/>
@@ -7627,11 +7172,9 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D101" s="0"/>
       <c r="E101" s="0">
         <v>0</v>
       </c>
@@ -7639,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H101" s="0">
         <v>0</v>
@@ -7661,7 +7204,7 @@
       </c>
       <c r="N101" s="0"/>
       <c r="O101" s="0" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="P101" s="0"/>
       <c r="Q101" s="0"/>
@@ -7669,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
@@ -7690,11 +7233,9 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D102" s="0"/>
       <c r="E102" s="0">
         <v>0</v>
       </c>
@@ -7702,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
@@ -7724,20 +7265,20 @@
       </c>
       <c r="N102" s="0"/>
       <c r="O102" s="0" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q102" s="0"/>
       <c r="R102" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="T102" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U102" s="0"/>
       <c r="V102" s="0"/>
@@ -7757,11 +7298,9 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D103" s="0"/>
       <c r="E103" s="0">
         <v>0</v>
       </c>
@@ -7769,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="H103" s="0">
         <v>1</v>
@@ -7790,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="O103" s="0"/>
       <c r="P103" s="0"/>
@@ -7818,11 +7357,9 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D104" s="0"/>
       <c r="E104" s="0">
         <v>0</v>
       </c>
@@ -7830,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H104" s="0">
         <v>0</v>
@@ -7851,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="O104" s="0"/>
       <c r="P104" s="0"/>
@@ -7879,10 +7416,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E105" s="0">
         <v>1</v>
@@ -7891,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H105" s="0">
         <v>0</v>
@@ -7914,7 +7451,7 @@
       <c r="N105" s="0"/>
       <c r="O105" s="0"/>
       <c r="P105" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q105" s="0"/>
       <c r="R105" s="0" t="b">
@@ -7922,7 +7459,7 @@
       </c>
       <c r="S105" s="0"/>
       <c r="T105" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U105" s="0"/>
       <c r="V105" s="0"/>
@@ -7942,11 +7479,9 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D106" s="0"/>
       <c r="E106" s="0">
         <v>0</v>
       </c>
@@ -7954,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="H106" s="0">
         <v>1</v>
@@ -8001,11 +7536,9 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D107" s="0"/>
       <c r="E107" s="0">
         <v>0</v>
       </c>
@@ -8013,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="H107" s="0">
         <v>1</v>
@@ -8060,11 +7593,9 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D108" s="0"/>
       <c r="E108" s="0">
         <v>0</v>
       </c>
@@ -8072,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="H108" s="0">
         <v>0</v>
@@ -8119,11 +7650,9 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D109" s="0"/>
       <c r="E109" s="0">
         <v>0</v>
       </c>
@@ -8131,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="H109" s="0">
         <v>0</v>
@@ -8178,11 +7707,9 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D110" s="0"/>
       <c r="E110" s="0">
         <v>0</v>
       </c>
@@ -8190,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H110" s="0">
         <v>0</v>
@@ -8237,11 +7764,9 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D111" s="0"/>
       <c r="E111" s="0">
         <v>0</v>
       </c>
@@ -8249,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="H111" s="0">
         <v>0</v>
@@ -8271,7 +7796,7 @@
       </c>
       <c r="N111" s="0"/>
       <c r="O111" s="0" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="P111" s="0"/>
       <c r="Q111" s="0"/>
@@ -8279,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="T111" s="0"/>
       <c r="U111" s="0"/>
@@ -8300,11 +7825,9 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D112" s="0"/>
       <c r="E112" s="0">
         <v>0</v>
       </c>
@@ -8312,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="H112" s="0">
         <v>1</v>
@@ -8412,11 +7935,9 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D114" s="0"/>
       <c r="E114" s="0">
         <v>0</v>
       </c>
@@ -8424,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="H114" s="0">
         <v>0</v>
@@ -8471,11 +7992,9 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D115" s="0"/>
       <c r="E115" s="0">
         <v>0</v>
       </c>
@@ -8483,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H115" s="0">
         <v>1</v>
@@ -8530,11 +8049,9 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D116" s="0"/>
       <c r="E116" s="0">
         <v>0</v>
       </c>
@@ -8542,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H116" s="0">
         <v>0</v>
@@ -8564,7 +8081,7 @@
       </c>
       <c r="N116" s="0"/>
       <c r="O116" s="0" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="P116" s="0"/>
       <c r="Q116" s="0"/>
@@ -8572,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="T116" s="0"/>
       <c r="U116" s="0"/>
@@ -8593,11 +8110,9 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D117" s="0"/>
       <c r="E117" s="0">
         <v>0</v>
       </c>
@@ -8605,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="H117" s="0">
         <v>0</v>
@@ -8627,7 +8142,7 @@
       </c>
       <c r="N117" s="0"/>
       <c r="O117" s="0" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
@@ -8635,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="T117" s="0"/>
       <c r="U117" s="0"/>
@@ -8656,11 +8171,9 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D118" s="0"/>
       <c r="E118" s="0">
         <v>0</v>
       </c>
@@ -8668,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="H118" s="0">
         <v>0</v>
@@ -8691,7 +8204,7 @@
       <c r="N118" s="0"/>
       <c r="O118" s="0"/>
       <c r="P118" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="Q118" s="0"/>
       <c r="R118" s="0" t="b">
@@ -8699,7 +8212,7 @@
       </c>
       <c r="S118" s="0"/>
       <c r="T118" s="0" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="U118" s="0"/>
       <c r="V118" s="0"/>
@@ -8719,11 +8232,9 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D119" s="0"/>
       <c r="E119" s="0">
         <v>0</v>
       </c>
@@ -8731,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="H119" s="0">
         <v>1</v>
@@ -8752,11 +8263,11 @@
         <v>1</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="O119" s="0"/>
       <c r="P119" s="0" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="Q119" s="0"/>
       <c r="R119" s="0" t="b">
@@ -8764,7 +8275,7 @@
       </c>
       <c r="S119" s="0"/>
       <c r="T119" s="0" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="U119" s="0"/>
       <c r="V119" s="0"/>
@@ -8784,11 +8295,9 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D120" s="0"/>
       <c r="E120" s="0">
         <v>0</v>
       </c>
@@ -8796,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="H120" s="0">
         <v>1</v>
@@ -8817,11 +8326,11 @@
         <v>1</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="O120" s="0"/>
       <c r="P120" s="0" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="Q120" s="0"/>
       <c r="R120" s="0" t="b">
@@ -8829,7 +8338,7 @@
       </c>
       <c r="S120" s="0"/>
       <c r="T120" s="0" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="U120" s="0"/>
       <c r="V120" s="0"/>
@@ -8849,11 +8358,9 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D121" s="0"/>
       <c r="E121" s="0">
         <v>0</v>
       </c>
@@ -8861,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="H121" s="0">
         <v>0</v>
@@ -8883,20 +8390,20 @@
       </c>
       <c r="N121" s="0"/>
       <c r="O121" s="0" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="Q121" s="0"/>
       <c r="R121" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="T121" s="0" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
@@ -8916,11 +8423,9 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D122" s="0"/>
       <c r="E122" s="0">
         <v>0</v>
       </c>
@@ -8928,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="H122" s="0">
         <v>1</v>
@@ -8975,11 +8480,9 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D123" s="0"/>
       <c r="E123" s="0">
         <v>0</v>
       </c>
@@ -8987,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="H123" s="0">
         <v>1</v>
@@ -9034,11 +8537,9 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D124" s="0"/>
       <c r="E124" s="0">
         <v>0</v>
       </c>
@@ -9046,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="H124" s="0">
         <v>1</v>
@@ -9093,10 +8594,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E125" s="0">
         <v>1</v>
@@ -9105,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="H125" s="0">
         <v>1</v>
@@ -9126,11 +8627,11 @@
         <v>1</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="O125" s="0"/>
       <c r="P125" s="0" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="Q125" s="0"/>
       <c r="R125" s="0" t="b">
@@ -9138,7 +8639,7 @@
       </c>
       <c r="S125" s="0"/>
       <c r="T125" s="0" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="U125" s="0"/>
       <c r="V125" s="0"/>
@@ -9158,11 +8659,9 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D126" s="0"/>
       <c r="E126" s="0">
         <v>0</v>
       </c>
@@ -9170,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="H126" s="0">
         <v>1</v>
@@ -9217,11 +8716,9 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D127" s="0"/>
       <c r="E127" s="0">
         <v>0</v>
       </c>
@@ -9229,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="H127" s="0">
         <v>0</v>
@@ -9251,20 +8748,20 @@
       </c>
       <c r="N127" s="0"/>
       <c r="O127" s="0" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q127" s="0"/>
       <c r="R127" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="T127" s="0" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
@@ -9284,11 +8781,9 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D128" s="0"/>
       <c r="E128" s="0">
         <v>0</v>
       </c>
@@ -9296,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="H128" s="0">
         <v>0</v>
@@ -9319,7 +8814,7 @@
       <c r="N128" s="0"/>
       <c r="O128" s="0"/>
       <c r="P128" s="0" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q128" s="0"/>
       <c r="R128" s="0" t="b">
@@ -9327,7 +8822,7 @@
       </c>
       <c r="S128" s="0"/>
       <c r="T128" s="0" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="U128" s="0"/>
       <c r="V128" s="0"/>
@@ -9347,11 +8842,9 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D129" s="0"/>
       <c r="E129" s="0">
         <v>0</v>
       </c>
@@ -9359,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="H129" s="0">
         <v>0</v>
@@ -9406,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="0">
@@ -9416,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H130" s="0">
         <v>0</v>
@@ -9463,11 +8956,9 @@
         <v>1</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D131" s="0"/>
       <c r="E131" s="0">
         <v>0</v>
       </c>
@@ -9475,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="H131" s="0">
         <v>0</v>
@@ -9522,11 +9013,9 @@
         <v>1</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D132" s="0"/>
       <c r="E132" s="0">
         <v>0</v>
       </c>
@@ -9534,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="H132" s="0">
         <v>0</v>
@@ -9581,11 +9070,9 @@
         <v>1</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D133" s="0"/>
       <c r="E133" s="0">
         <v>0</v>
       </c>
@@ -9593,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="H133" s="0">
         <v>1</v>
@@ -9615,10 +9102,10 @@
       </c>
       <c r="N133" s="0"/>
       <c r="O133" s="0" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="Q133" s="0"/>
       <c r="R133" s="0" t="b">
@@ -9644,11 +9131,9 @@
         <v>1</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D134" s="0"/>
       <c r="E134" s="0">
         <v>0</v>
       </c>
@@ -9656,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="H134" s="0">
         <v>0</v>
@@ -9756,11 +9241,9 @@
         <v>1</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D136" s="0"/>
       <c r="E136" s="0">
         <v>0</v>
       </c>
@@ -9768,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="H136" s="0">
         <v>1</v>
@@ -9815,10 +9298,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E137" s="0">
         <v>1</v>
@@ -9827,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="H137" s="0">
         <v>0</v>
@@ -9874,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="E138" s="0">
         <v>1</v>
@@ -9886,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="H138" s="0">
         <v>1</v>
@@ -9933,11 +9416,9 @@
         <v>1</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>210</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D139" s="0"/>
       <c r="E139" s="0">
         <v>0</v>
       </c>
@@ -9945,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H139" s="0">
         <v>0</v>
@@ -9992,11 +9473,9 @@
         <v>1</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>210</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D140" s="0"/>
       <c r="E140" s="0">
         <v>0</v>
       </c>
@@ -10004,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H140" s="0">
         <v>1</v>
@@ -10051,10 +9530,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E141" s="0">
         <v>1</v>
@@ -10063,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="H141" s="0">
         <v>1</v>
@@ -10110,11 +9589,9 @@
         <v>1</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D142" s="0"/>
       <c r="E142" s="0">
         <v>0</v>
       </c>
@@ -10122,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="H142" s="0">
         <v>0</v>
@@ -10169,11 +9646,9 @@
         <v>1</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D143" s="0"/>
       <c r="E143" s="0">
         <v>0</v>
       </c>
@@ -10181,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="H143" s="0">
         <v>0</v>
@@ -10228,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E144" s="0">
         <v>1</v>
@@ -10240,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="H144" s="0">
         <v>0</v>
@@ -10287,11 +9762,9 @@
         <v>1</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D145" s="0"/>
       <c r="E145" s="0">
         <v>0</v>
       </c>
@@ -10299,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="H145" s="0">
         <v>1</v>
@@ -10399,11 +9872,9 @@
         <v>1</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D147" s="0"/>
       <c r="E147" s="0">
         <v>0</v>
       </c>
@@ -10411,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="H147" s="0">
         <v>1</v>
@@ -10458,11 +9929,9 @@
         <v>1</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D148" s="0"/>
       <c r="E148" s="0">
         <v>0</v>
       </c>
@@ -10470,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="H148" s="0">
         <v>0</v>
@@ -10517,11 +9986,9 @@
         <v>1</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D149" s="0"/>
       <c r="E149" s="0">
         <v>0</v>
       </c>
@@ -10529,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="H149" s="0">
         <v>0</v>
@@ -10551,7 +10018,7 @@
       </c>
       <c r="N149" s="0"/>
       <c r="O149" s="0" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="P149" s="0"/>
       <c r="Q149" s="0"/>
@@ -10559,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="S149" s="0" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="T149" s="0"/>
       <c r="U149" s="0"/>
@@ -10580,11 +10047,9 @@
         <v>1</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D150" s="0"/>
       <c r="E150" s="0">
         <v>0</v>
       </c>
@@ -10592,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="H150" s="0">
         <v>0</v>
@@ -10614,7 +10079,7 @@
       </c>
       <c r="N150" s="0"/>
       <c r="O150" s="0" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="P150" s="0"/>
       <c r="Q150" s="0"/>
@@ -10622,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="S150" s="0" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="T150" s="0"/>
       <c r="U150" s="0"/>
@@ -10643,11 +10108,9 @@
         <v>1</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D151" s="0"/>
       <c r="E151" s="0">
         <v>0</v>
       </c>
@@ -10655,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="H151" s="0">
         <v>0</v>

--- a/Main_files/Result_allmodels.xlsx
+++ b/Main_files/Result_allmodels.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="586" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="464">
   <si>
     <t>model_name</t>
   </si>
@@ -33,6 +34,69 @@
     <t>CL_MS07</t>
   </si>
   <si>
+    <t>DEREA_GEAR16</t>
+  </si>
+  <si>
+    <t>EA_ALSV06</t>
+  </si>
+  <si>
+    <t>EA_AWM05</t>
+  </si>
+  <si>
+    <t>EA_BE15</t>
+  </si>
+  <si>
+    <t>EA_BF17</t>
+  </si>
+  <si>
+    <t>EA_CKL09</t>
+  </si>
+  <si>
+    <t>EA_CW05fm</t>
+  </si>
+  <si>
+    <t>EA_CW05ta</t>
+  </si>
+  <si>
+    <t>EA_DKR11</t>
+  </si>
+  <si>
+    <t>EA_GE10</t>
+  </si>
+  <si>
+    <t>EA_GNSS10</t>
+  </si>
+  <si>
+    <t>EA_PV15</t>
+  </si>
+  <si>
+    <t>EA_PV16</t>
+  </si>
+  <si>
+    <t>EA_PV17</t>
+  </si>
+  <si>
+    <t>EA_QR14</t>
+  </si>
+  <si>
+    <t>EA_QUEST3</t>
+  </si>
+  <si>
+    <t>EA_SR07</t>
+  </si>
+  <si>
+    <t>EA_SW03</t>
+  </si>
+  <si>
+    <t>EA_SWW14</t>
+  </si>
+  <si>
+    <t>EA_VI16bgg</t>
+  </si>
+  <si>
+    <t>EA_VI16gk</t>
+  </si>
+  <si>
     <t>EACZ_GEM03</t>
   </si>
   <si>
@@ -45,64 +109,7 @@
     <t>EAUS_NAWMctww</t>
   </si>
   <si>
-    <t>EA_ALSV06</t>
-  </si>
-  <si>
-    <t>EA_AWM05</t>
-  </si>
-  <si>
-    <t>EA_BE15</t>
-  </si>
-  <si>
-    <t>EA_BF17</t>
-  </si>
-  <si>
-    <t>EA_CKL09</t>
-  </si>
-  <si>
-    <t>EA_CW05fm</t>
-  </si>
-  <si>
-    <t>EA_CW05ta</t>
-  </si>
-  <si>
-    <t>EA_DKR11</t>
-  </si>
-  <si>
-    <t>EA_GE10</t>
-  </si>
-  <si>
-    <t>EA_GNSS10</t>
-  </si>
-  <si>
-    <t>EA_PV15</t>
-  </si>
-  <si>
-    <t>EA_PV16</t>
-  </si>
-  <si>
-    <t>EA_PV17</t>
-  </si>
-  <si>
-    <t>EA_QR14</t>
-  </si>
-  <si>
-    <t>EA_QUEST3</t>
-  </si>
-  <si>
-    <t>EA_SR07</t>
-  </si>
-  <si>
-    <t>EA_SW03</t>
-  </si>
-  <si>
-    <t>EA_SWW14</t>
-  </si>
-  <si>
-    <t>EA_VI16bgg</t>
-  </si>
-  <si>
-    <t>EA_VI16gk</t>
+    <t>ESREA_FIMOD12</t>
   </si>
   <si>
     <t>FI_AINO16</t>
@@ -141,6 +148,9 @@
     <t>NK_BGUS10</t>
   </si>
   <si>
+    <t>NK_CDK24</t>
+  </si>
+  <si>
     <t>NK_CFP10</t>
   </si>
   <si>
@@ -177,6 +187,9 @@
     <t>NK_FLMF18</t>
   </si>
   <si>
+    <t>NK_FNL23</t>
+  </si>
+  <si>
     <t>NK_GHP16</t>
   </si>
   <si>
@@ -276,6 +289,9 @@
     <t>RBC_DTT11</t>
   </si>
   <si>
+    <t>UK_SM11</t>
+  </si>
+  <si>
     <t>US_ACELm</t>
   </si>
   <si>
@@ -291,6 +307,9 @@
     <t>US_AJ16</t>
   </si>
   <si>
+    <t>US_BB18</t>
+  </si>
+  <si>
     <t>US_BKM12</t>
   </si>
   <si>
@@ -339,12 +358,12 @@
     <t>US_DNGS15_SW</t>
   </si>
   <si>
+    <t>US_DNGS15_SWpi</t>
+  </si>
+  <si>
     <t>US_DNGS15_SWSP</t>
   </si>
   <si>
-    <t>US_DNGS15_SWpi</t>
-  </si>
-  <si>
     <t>US_FGKR15</t>
   </si>
   <si>
@@ -366,6 +385,9 @@
     <t>US_FRB08mx</t>
   </si>
   <si>
+    <t>US_FRB22</t>
+  </si>
+  <si>
     <t>US_FU19</t>
   </si>
   <si>
@@ -483,82 +505,187 @@
     <t>&gt;modfile copied&gt;steadystatefile_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied&gt;extrafile1_copied</t>
+  </si>
+  <si>
+    <t>&gt;modfile copied</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
-    <t>Error: Dynare: preprocessing failed (Error ID: "")
-Error in: run&gt;mmb_loop_Max&gt;dynare
-  line 297:     error('Dynare: preprocessing failed')
-Error in: run&gt;mmb_loop_Max
+    <t>Error: Unrecognized field name "ys". (Error ID: "MATLAB:nonExistentField")
+Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+  line 19: z = repmat(oo_.dr.ys,1,klen);
+Error in: run_files&gt;mmb_loop_Max
+  line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Dynare: can't open NK_CDK24_rep.mod (Error ID: "")
+Error in: run_files&gt;mmb_loop_Max&gt;dynare
+  line 167:     error(['Dynare: can''t open ' fname])
+Error in: run_files&gt;mmb_loop_Max
   line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
-  </si>
-  <si>
-    <t>Error: Unrecognized field name "ys". (Error ID: "MATLAB:nonExistentField")
-Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Unable to perform assignment because the left and right sides have a different number of elements. (Error ID: "MATLAB:matrix:singleSubscriptNumelMismatch")
+Error in: run_files&gt;mmb_loop_Max&gt;dyn_first_order_solver
+  line 226:         info(2) = temp'*temp;
+Error in: run_files&gt;mmb_loop_Max
+  line 77:      tic; for jj=1:run_time_reps; [dr,info] = dyn_first_order_solver(jacobia_,M_,oo_.dr,options_,0); end;   AMG_Results(2,1,loop_k) = toc/run_time_reps;   
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
+Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
   line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run&gt;mmb_loop_Max
+Error in: run_files&gt;mmb_loop_Max
   line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
-  </si>
-  <si>
-    <t>Error: Unable to perform assignment because the left and right sides have a different number of elements. (Error ID: "MATLAB:matrix:singleSubscriptNumelMismatch")
-Error in: run&gt;mmb_loop_Max&gt;dyn_first_order_solver
-  line 213:         info(2) = temp'*temp;
-Error in: run&gt;mmb_loop_Max
-  line 77:      tic; for jj=1:run_time_reps; [dr,info] = dyn_first_order_solver(jacobia_,M_,oo_.dr,options_,0); end;   AMG_Results(2,1,loop_k) = toc/run_time_reps;   
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
-  </si>
-  <si>
-    <t>Error: Dot indexing is not supported for variables of this type. (Error ID: "MATLAB:structRefFromNonStruct")
-Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
-  line 19: z = repmat(oo_.dr.ys,1,klen);
-Error in: run&gt;mmb_loop_Max
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
+Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+  line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
+Error in: run_files&gt;mmb_loop_Max
   line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
+  </si>
+  <si>
+    <t>Error: Impossible to find the steady state (the sum of square residuals of the static equations is 0.0000). Either the model doesn't have a steady state or there are an infinity of steady states Check whether your model is truly linear or whether there is a mistake in linearization. (Error ID: "")
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
+  line 32:     error(message);
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
+  line 102:     print_info(info,options_.noprint, options_);
+Error in: run_files&gt;mmb_loop_Max&gt;dynare&gt;driver
+  line 619: steady;
+Error in: run_files&gt;mmb_loop_Max&gt;dynare
+  line 281:     evalin('base',[fname '.driver']);
+Error in: run_files&gt;mmb_loop_Max
+  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
   </si>
   <si>
     <t>Error: Index in position 1 exceeds array bounds. Index must not exceed 2. (Error ID: "MATLAB:badsubscript")
-Error in: run&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
+Error in: run_files&gt;mmb_loop_Max&gt;create_reduced_matrix_quadratic_from_dynare
   line 46:     lead_id = find(lead_lag_incidence(maximum_lag+2,:));
-Error in: run&gt;mmb_loop_Max
+Error in: run_files&gt;mmb_loop_Max
   line 74:     [matrix_quadratic, jacobia_]=create_reduced_matrix_quadratic_from_dynare(M_,oo_);
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
-  </si>
-  <si>
-    <t>Error: The steady state has NaNs or Inf. (Error ID: "")
-Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady&gt;print_info
-  line 33:     error(message);
-Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver&gt;steady
-  line 143:     print_info(info,options_.noprint, options_);
-Error in: run&gt;mmb_loop_Max&gt;dynare&gt;driver
-  line 1219: steady;
-Error in: run&gt;mmb_loop_Max&gt;dynare
-  line 310:     evalin('base',[fname '.driver']);
-Error in: run&gt;mmb_loop_Max
-  line 68:     eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict  nolog'])
-Error in: run
-  line 112: evalin('caller', strcat(scriptStem, ';'));</t>
+Error in: run_files
+  line 37: mmb_loop_Max;</t>
   </si>
   <si>
     <t>error_flag</t>
@@ -585,6 +712,66 @@
     <t>MT_rep_files\CL_MS07_rep_MT.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\ALSV06WPh_rep_MT.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_AWM05\EA_AWM05_rep\AW_Replicate_KW_IRF_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_BE15\EA_BE15_rep\EA_BE15_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_BF17\EA_BF17_rep.mod</t>
+  </si>
+  <si>
+    <t>MT_rep_files\EA_CKL09_rep_MT.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_CW05fm\EA_CW05fm_rep\EA_CW05fm_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_CW05ta\EA_CW05ta_rep\EA_CW05ta_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\EA_DKR11_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GE10\EA_GEL10_rep\EA_GEL10_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\EA_GNSS10_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_PV15\EA_PV15_rep\EA_PV15_bg_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_PV16\EA_PV_rep\EA_PV16_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_PV17\EA_PV_rep\EA_PV17_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_QR14\optimalTRandREG.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_QUEST3\EA_QUEST3_rep\EA_QUEST3_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SR07\EA_SR07_rep\EA_SR07_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SW03\EA_SW03_rep\EA_SW03_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_SWW14\EA_SWW14_rep\EA_SWW14_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_VI16bgg\EA_VI16bgg_rep\EA_VI16bgg_rep.mod</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_VI16\EA_VI16_replication\EA_VI16_rep.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\EACZ_GEM03\EACZ_GEM03_rep\EACZ_GEM03_rep.mod</t>
   </si>
   <si>
@@ -597,66 +784,6 @@
     <t>MT_rep_files\EAUS_NAWMctww_rep_MT.mod</t>
   </si>
   <si>
-    <t>MT_rep_files\ALSV06WPh_rep_MT.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_AWM05\EA_AWM05_rep\AW_Replicate_KW_IRF_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_BE15\EA_BE15_rep\EA_BE15_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_BF17\EA_BF17_rep.mod</t>
-  </si>
-  <si>
-    <t>MT_rep_files\EA_CKL09_rep_MT.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_CW05fm\EA_CW05fm_rep\EA_CW05fm_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_CW05ta\EA_CW05ta_rep\EA_CW05ta_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\EA_DKR11_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GE10\EA_GEL10_rep\EA_GEL10_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\EA_GNSS10_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_PV15\EA_PV15_rep\EA_PV15_bg_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_PV16\EA_PV_rep\EA_PV16_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_PV17\EA_PV_rep\EA_PV17_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_QR14\optimalTRandREG.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_QUEST3\EA_QUEST3_rep\EA_QUEST3_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SR07\EA_SR07_rep\EA_SR07_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SW03\EA_SW03_rep\EA_SW03_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_SWW14\EA_SWW14_rep\EA_SWW14_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_VI16bgg\EA_VI16bgg_rep\EA_VI16bgg_rep.mod</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_VI16\EA_VI16_replication\EA_VI16_rep.mod</t>
-  </si>
-  <si>
     <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\FI_AINO16_rep.mod</t>
   </si>
   <si>
@@ -870,12 +997,12 @@
     <t>MT_rep_files\US_DNGS15_SW_rep_MT.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\US_DNGS15_SWpi_rep_MT.mod</t>
+  </si>
+  <si>
     <t>MT_rep_files\US_DNGS15_SWSP_rep_MT.mod</t>
   </si>
   <si>
-    <t>MT_rep_files\US_DNGS15_SWpi_rep_MT.mod</t>
-  </si>
-  <si>
     <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\main_code_FGKR.mod</t>
   </si>
   <si>
@@ -1119,6 +1246,9 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -1128,6 +1258,18 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -1164,15 +1306,45 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
+    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
+  </si>
+  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
+  </si>
+  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
+  </si>
+  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1182,7 +1354,76 @@
     <t>rep_comment_1</t>
   </si>
   <si>
+    <t>new steadystate file</t>
+  </si>
+  <si>
+    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
+  </si>
+  <si>
+    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
+  </si>
+  <si>
+    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
+  </si>
+  <si>
+    <t>there is another alternative policy regime version in the respective folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>2 alternative files in the same folder</t>
+  </si>
+  <si>
+    <t>3 alternative files in the same folder</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
+    <t>old steadystate file</t>
+  </si>
+  <si>
+    <t>other alternative files in same folder</t>
+  </si>
+  <si>
     <t>manual_adaption_comment_1</t>
+  </si>
+  <si>
+    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
+  </si>
+  <si>
+    <t>deleted close all and dynare &lt;early version&gt; calls</t>
+  </si>
+  <si>
+    <t>I deleted figure closing matlab statements</t>
+  </si>
+  <si>
+    <t>I had to come up with a interest rate rule, I also hard coded the respective 2 parameters.</t>
+  </si>
+  <si>
+    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
+  </si>
+  <si>
+    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
+  </si>
+  <si>
+    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
   </si>
   <si>
     <t>error_loop_run_descr</t>
@@ -1237,7 +1478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1275,18 +1516,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y152"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y159"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
     <col min="2" max="2" width="19.42578125" customWidth="true"/>
     <col min="3" max="3" width="148.140625" customWidth="true"/>
-    <col min="4" max="4" width="141.28515625" customWidth="true"/>
+    <col min="4" max="4" width="253.85546875" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
     <col min="7" max="7" width="74.5703125" customWidth="true"/>
@@ -1315,76 +1553,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2">
@@ -1395,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0">
@@ -1405,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1452,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0">
@@ -1462,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1509,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0">
@@ -1519,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1566,19 +1804,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1599,11 +1835,11 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0" t="b">
@@ -1611,7 +1847,7 @@
       </c>
       <c r="S5" s="0"/>
       <c r="T5" s="0" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
@@ -1631,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0">
@@ -1641,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1688,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0">
@@ -1697,27 +1933,13 @@
       <c r="F7" s="0">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0">
-        <v>0</v>
-      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
@@ -1730,9 +1952,7 @@
       <c r="U7" s="0"/>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
-      <c r="X7" s="0">
-        <v>0</v>
-      </c>
+      <c r="X7" s="0"/>
       <c r="Y7" s="0" t="b">
         <v>0</v>
       </c>
@@ -1745,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0">
@@ -1755,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="H8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1770,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1778,13 +1998,17 @@
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
+      <c r="Q8" s="0" t="s">
+        <v>404</v>
+      </c>
       <c r="R8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
+      <c r="U8" s="0" t="s">
+        <v>446</v>
+      </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0">
@@ -1802,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0">
@@ -1812,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1824,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1859,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0">
@@ -1869,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -1916,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0">
@@ -1926,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -1935,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -1949,17 +2173,13 @@
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
-      <c r="Q11" s="0" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q11" s="0"/>
       <c r="R11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
-      <c r="U11" s="0" t="s">
-        <v>359</v>
-      </c>
+      <c r="U11" s="0"/>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0">
@@ -1977,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0">
@@ -1987,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2034,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0">
@@ -2044,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -2091,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
@@ -2101,16 +2321,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
@@ -2148,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
@@ -2158,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -2176,17 +2396,27 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>387</v>
+      </c>
       <c r="Q15" s="0"/>
       <c r="R15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>430</v>
+      </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
@@ -2194,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2205,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0">
@@ -2215,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2227,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -2262,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0">
@@ -2272,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2293,13 +2523,17 @@
         <v>0</v>
       </c>
       <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
+      <c r="O17" s="0" t="s">
+        <v>371</v>
+      </c>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>415</v>
+      </c>
       <c r="T17" s="0"/>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
@@ -2308,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2319,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0">
@@ -2329,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2341,33 +2575,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
       <c r="R18" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
@@ -2375,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2386,17 +2610,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="0"/>
+        <v>167</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -2405,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -2426,10 +2652,14 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
+      <c r="V19" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>459</v>
+      </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="0" t="b">
         <v>0</v>
@@ -2443,26 +2673,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="0"/>
+        <v>167</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="H20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -2474,26 +2706,26 @@
         <v>0</v>
       </c>
       <c r="N20" s="0"/>
-      <c r="O20" s="0" t="s">
-        <v>331</v>
-      </c>
+      <c r="O20" s="0"/>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
+      <c r="V20" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>459</v>
+      </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2504,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0">
@@ -2514,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -2561,28 +2793,26 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D22" s="0"/>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -2603,14 +2833,10 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
-      <c r="V22" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>381</v>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0" t="b">
         <v>0</v>
@@ -2624,28 +2850,26 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D23" s="0"/>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="H23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -2666,14 +2890,10 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
-      <c r="V23" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>381</v>
-      </c>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0" t="b">
         <v>0</v>
@@ -2687,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0">
@@ -2697,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="H24" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -2709,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -2744,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0">
@@ -2754,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -2801,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0">
@@ -2811,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -2858,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0">
@@ -2868,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="H27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -2880,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -2915,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0">
@@ -2925,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
@@ -2972,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0">
@@ -2982,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
@@ -3029,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0">
@@ -3039,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="H30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -3051,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -3086,25 +3306,23 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D31" s="0"/>
       <c r="E31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="H31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -3119,30 +3337,22 @@
         <v>0</v>
       </c>
       <c r="N31" s="0"/>
-      <c r="O31" s="0" t="s">
-        <v>332</v>
-      </c>
+      <c r="O31" s="0"/>
       <c r="P31" s="0"/>
       <c r="Q31" s="0"/>
       <c r="R31" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
-      <c r="V31" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>382</v>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0">
@@ -3162,27 +3372,13 @@
       <c r="F32" s="0">
         <v>0</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="0">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0">
-        <v>0</v>
-      </c>
-      <c r="L32" s="0">
-        <v>0</v>
-      </c>
-      <c r="M32" s="0">
-        <v>0</v>
-      </c>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
       <c r="P32" s="0"/>
@@ -3195,9 +3391,7 @@
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
       <c r="W32" s="0"/>
-      <c r="X32" s="0">
-        <v>0</v>
-      </c>
+      <c r="X32" s="0"/>
       <c r="Y32" s="0" t="b">
         <v>0</v>
       </c>
@@ -3210,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0">
@@ -3220,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="H33" s="0">
         <v>1</v>
@@ -3241,22 +3435,30 @@
         <v>0</v>
       </c>
       <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
+      <c r="O33" s="0" t="s">
+        <v>372</v>
+      </c>
       <c r="P33" s="0"/>
       <c r="Q33" s="0"/>
       <c r="R33" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>416</v>
+      </c>
       <c r="T33" s="0"/>
       <c r="U33" s="0"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
+      <c r="V33" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>460</v>
+      </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3267,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0">
@@ -3277,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="H34" s="0">
         <v>1</v>
@@ -3324,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0">
@@ -3334,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H35" s="0">
         <v>1</v>
@@ -3381,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0">
@@ -3391,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="H36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -3438,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0">
@@ -3448,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="H37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -3495,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0">
@@ -3505,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="H38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -3552,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0">
@@ -3562,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
       </c>
       <c r="I39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -3609,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0">
@@ -3619,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="H40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
@@ -3631,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -3663,17 +3865,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>169</v>
+      </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0">
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>248</v>
+      </c>
       <c r="H41" s="0">
         <v>0</v>
       </c>
@@ -3684,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -3719,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0">
@@ -3729,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
       </c>
       <c r="I42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="0">
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -3773,23 +3979,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C43" s="0"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0">
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>211</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G43" s="0"/>
       <c r="H43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -3833,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0">
@@ -3843,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -3887,35 +4089,27 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="E45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0"/>
-      <c r="H45" s="0">
-        <v>0</v>
-      </c>
-      <c r="I45" s="0">
-        <v>0</v>
-      </c>
-      <c r="J45" s="0">
-        <v>0</v>
-      </c>
-      <c r="K45" s="0">
-        <v>0</v>
-      </c>
-      <c r="L45" s="0">
-        <v>0</v>
-      </c>
-      <c r="M45" s="0">
-        <v>0</v>
-      </c>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
       <c r="N45" s="0"/>
       <c r="O45" s="0"/>
       <c r="P45" s="0"/>
@@ -3928,9 +4122,7 @@
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
-      <c r="X45" s="0">
-        <v>0</v>
-      </c>
+      <c r="X45" s="0"/>
       <c r="Y45" s="0" t="b">
         <v>0</v>
       </c>
@@ -3943,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0">
@@ -3953,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -3997,22 +4189,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>169</v>
+      </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0">
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>252</v>
+      </c>
       <c r="H47" s="0">
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -4050,26 +4246,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="0">
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G48" s="0"/>
       <c r="H48" s="0">
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -4110,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0">
@@ -4120,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4164,21 +4356,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C50" s="0"/>
       <c r="D50" s="0"/>
       <c r="E50" s="0">
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G50" s="0"/>
       <c r="H50" s="0">
         <v>0</v>
       </c>
@@ -4192,29 +4380,21 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="0">
         <v>0</v>
       </c>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
-      <c r="P50" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>360</v>
-      </c>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
       <c r="R50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S50" s="0"/>
-      <c r="T50" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="U50" s="0" t="s">
-        <v>360</v>
-      </c>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0">
@@ -4232,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0">
@@ -4242,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -4257,29 +4437,21 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
       </c>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
-      <c r="P51" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>361</v>
-      </c>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
       <c r="R51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S51" s="0"/>
-      <c r="T51" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="U51" s="0" t="s">
-        <v>361</v>
-      </c>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0">
@@ -4297,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0">
@@ -4307,40 +4479,34 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
       </c>
       <c r="I52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="0">
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>1</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
       <c r="P52" s="0"/>
       <c r="Q52" s="0"/>
       <c r="R52" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
@@ -4349,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4360,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0">
@@ -4370,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -4385,21 +4551,29 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
       </c>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
+      <c r="P53" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>405</v>
+      </c>
       <c r="R53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
+      <c r="T53" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>447</v>
+      </c>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0">
@@ -4417,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0">
@@ -4427,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -4436,33 +4610,35 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N54" s="0"/>
       <c r="O54" s="0"/>
       <c r="P54" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q54" s="0"/>
+        <v>389</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>406</v>
+      </c>
       <c r="R54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S54" s="0"/>
       <c r="T54" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="U54" s="0"/>
+        <v>432</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>448</v>
+      </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0">
@@ -4480,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0">
@@ -4490,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -4508,11 +4684,13 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
-      </c>
-      <c r="N55" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="O55" s="0" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="P55" s="0"/>
       <c r="Q55" s="0"/>
@@ -4520,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="T55" s="0"/>
       <c r="U55" s="0"/>
@@ -4541,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0">
@@ -4551,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="H56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -4563,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -4598,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0">
@@ -4608,16 +4786,16 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="H57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="0">
         <v>0</v>
@@ -4629,11 +4807,11 @@
         <v>1</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -4641,7 +4819,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -4661,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0">
@@ -4670,27 +4848,13 @@
       <c r="F58" s="0">
         <v>0</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H58" s="0">
-        <v>1</v>
-      </c>
-      <c r="I58" s="0">
-        <v>0</v>
-      </c>
-      <c r="J58" s="0">
-        <v>0</v>
-      </c>
-      <c r="K58" s="0">
-        <v>0</v>
-      </c>
-      <c r="L58" s="0">
-        <v>0</v>
-      </c>
-      <c r="M58" s="0">
-        <v>0</v>
-      </c>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
       <c r="P58" s="0"/>
@@ -4701,15 +4865,9 @@
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="0"/>
-      <c r="V58" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="W58" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="X58" s="0">
-        <v>1</v>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
       <c r="Y58" s="0" t="b">
         <v>0</v>
       </c>
@@ -4722,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0">
@@ -4732,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -4753,18 +4911,18 @@
         <v>0</v>
       </c>
       <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0" t="s">
-        <v>351</v>
-      </c>
+      <c r="O59" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="P59" s="0"/>
       <c r="Q59" s="0"/>
       <c r="R59" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0" t="s">
-        <v>351</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="T59" s="0"/>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
@@ -4772,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4783,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0">
@@ -4793,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -4815,17 +4973,13 @@
       </c>
       <c r="N60" s="0"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0" t="s">
-        <v>352</v>
-      </c>
+      <c r="P60" s="0"/>
       <c r="Q60" s="0"/>
       <c r="R60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S60" s="0"/>
-      <c r="T60" s="0" t="s">
-        <v>352</v>
-      </c>
+      <c r="T60" s="0"/>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
@@ -4844,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0">
@@ -4854,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="H61" s="0">
         <v>1</v>
@@ -4872,17 +5026,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0</v>
-      </c>
-      <c r="N61" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
+      <c r="P61" s="0" t="s">
+        <v>390</v>
+      </c>
       <c r="Q61" s="0"/>
       <c r="R61" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
+      <c r="T61" s="0" t="s">
+        <v>433</v>
+      </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
@@ -4901,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0">
@@ -4911,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -4923,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -4933,22 +5093,22 @@
       </c>
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
-      <c r="P62" s="0" t="s">
-        <v>353</v>
-      </c>
+      <c r="P62" s="0"/>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S62" s="0"/>
-      <c r="T62" s="0" t="s">
-        <v>353</v>
-      </c>
+      <c r="T62" s="0"/>
       <c r="U62" s="0"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
+      <c r="V62" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>461</v>
+      </c>
       <c r="X62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="0" t="b">
         <v>0</v>
@@ -4962,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="0">
@@ -4972,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="H63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -4984,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -4994,13 +5154,17 @@
       </c>
       <c r="N63" s="0"/>
       <c r="O63" s="0"/>
-      <c r="P63" s="0"/>
+      <c r="P63" s="0" t="s">
+        <v>391</v>
+      </c>
       <c r="Q63" s="0"/>
       <c r="R63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S63" s="0"/>
-      <c r="T63" s="0"/>
+      <c r="T63" s="0" t="s">
+        <v>434</v>
+      </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
@@ -5019,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0">
@@ -5029,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -5041,20 +5205,18 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N64" s="0"/>
       <c r="O64" s="0"/>
       <c r="P64" s="0" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="Q64" s="0"/>
       <c r="R64" s="0" t="b">
@@ -5062,7 +5224,7 @@
       </c>
       <c r="S64" s="0"/>
       <c r="T64" s="0" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
@@ -5082,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0">
@@ -5092,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="H65" s="0">
         <v>1</v>
@@ -5136,17 +5298,21 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
-      </c>
-      <c r="C66" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>177</v>
+      </c>
       <c r="D66" s="0"/>
       <c r="E66" s="0">
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>268</v>
+      </c>
       <c r="H66" s="0">
         <v>0</v>
       </c>
@@ -5157,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -5167,13 +5333,17 @@
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="0"/>
+      <c r="P66" s="0" t="s">
+        <v>393</v>
+      </c>
       <c r="Q66" s="0"/>
       <c r="R66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S66" s="0"/>
-      <c r="T66" s="0"/>
+      <c r="T66" s="0" t="s">
+        <v>436</v>
+      </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
@@ -5192,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="0">
@@ -5202,16 +5372,16 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="H67" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -5249,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="0">
@@ -5259,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="H68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -5277,17 +5447,23 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>0</v>
-      </c>
-      <c r="N68" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>362</v>
+      </c>
       <c r="O68" s="0"/>
-      <c r="P68" s="0"/>
+      <c r="P68" s="0" t="s">
+        <v>394</v>
+      </c>
       <c r="Q68" s="0"/>
       <c r="R68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S68" s="0"/>
-      <c r="T68" s="0"/>
+      <c r="T68" s="0" t="s">
+        <v>437</v>
+      </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
@@ -5306,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0">
@@ -5316,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="H69" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="0">
         <v>0</v>
@@ -5360,21 +5536,17 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>1</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C70" s="0"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0">
         <v>0</v>
       </c>
       <c r="F70" s="0">
-        <v>0</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>235</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G70" s="0"/>
       <c r="H70" s="0">
         <v>0</v>
       </c>
@@ -5385,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="0">
         <v>0</v>
@@ -5395,17 +5567,13 @@
       </c>
       <c r="N70" s="0"/>
       <c r="O70" s="0"/>
-      <c r="P70" s="0" t="s">
-        <v>354</v>
-      </c>
+      <c r="P70" s="0"/>
       <c r="Q70" s="0"/>
       <c r="R70" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S70" s="0"/>
-      <c r="T70" s="0" t="s">
-        <v>354</v>
-      </c>
+      <c r="T70" s="0"/>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
       <c r="W70" s="0"/>
@@ -5424,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0">
@@ -5434,16 +5602,16 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H71" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="0">
         <v>0</v>
       </c>
       <c r="J71" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="0">
         <v>0</v>
@@ -5481,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D72" s="0"/>
       <c r="E72" s="0">
@@ -5491,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H72" s="0">
         <v>0</v>
       </c>
       <c r="I72" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="0">
         <v>0</v>
@@ -5535,17 +5703,21 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>0</v>
-      </c>
-      <c r="C73" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>179</v>
+      </c>
       <c r="D73" s="0"/>
       <c r="E73" s="0">
         <v>0</v>
       </c>
       <c r="F73" s="0">
-        <v>1</v>
-      </c>
-      <c r="G73" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="H73" s="0">
         <v>0</v>
       </c>
@@ -5591,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D74" s="0"/>
       <c r="E74" s="0">
@@ -5601,19 +5773,19 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H74" s="0">
         <v>0</v>
       </c>
       <c r="I74" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="0">
         <v>0</v>
       </c>
       <c r="K74" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="0">
         <v>0</v>
@@ -5623,13 +5795,17 @@
       </c>
       <c r="N74" s="0"/>
       <c r="O74" s="0"/>
-      <c r="P74" s="0"/>
+      <c r="P74" s="0" t="s">
+        <v>395</v>
+      </c>
       <c r="Q74" s="0"/>
       <c r="R74" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S74" s="0"/>
-      <c r="T74" s="0"/>
+      <c r="T74" s="0" t="s">
+        <v>438</v>
+      </c>
       <c r="U74" s="0"/>
       <c r="V74" s="0"/>
       <c r="W74" s="0"/>
@@ -5648,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="0">
@@ -5658,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="H75" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="0">
         <v>0</v>
@@ -5670,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="0">
         <v>0</v>
@@ -5680,17 +5856,13 @@
       </c>
       <c r="N75" s="0"/>
       <c r="O75" s="0"/>
-      <c r="P75" s="0" t="s">
-        <v>355</v>
-      </c>
+      <c r="P75" s="0"/>
       <c r="Q75" s="0"/>
       <c r="R75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S75" s="0"/>
-      <c r="T75" s="0" t="s">
-        <v>355</v>
-      </c>
+      <c r="T75" s="0"/>
       <c r="U75" s="0"/>
       <c r="V75" s="0"/>
       <c r="W75" s="0"/>
@@ -5709,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="0">
@@ -5719,29 +5891,27 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="H76" s="0">
         <v>0</v>
       </c>
       <c r="I76" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="0">
         <v>0</v>
       </c>
       <c r="K76" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="0">
         <v>0</v>
       </c>
       <c r="M76" s="0">
-        <v>1</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N76" s="0"/>
       <c r="O76" s="0"/>
       <c r="P76" s="0"/>
       <c r="Q76" s="0"/>
@@ -5765,23 +5935,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>1</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C77" s="0"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0">
         <v>0</v>
       </c>
       <c r="F77" s="0">
-        <v>0</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>241</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G77" s="0"/>
       <c r="H77" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="0">
         <v>0</v>
@@ -5825,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="0">
@@ -5835,19 +6001,19 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
       </c>
       <c r="I78" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="0">
         <v>0</v>
       </c>
       <c r="K78" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="0">
         <v>0</v>
@@ -5882,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0"/>
       <c r="E79" s="0">
@@ -5892,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="H79" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="0">
         <v>0</v>
@@ -5904,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="0">
         <v>0</v>
@@ -5914,13 +6080,17 @@
       </c>
       <c r="N79" s="0"/>
       <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
+      <c r="P79" s="0" t="s">
+        <v>396</v>
+      </c>
       <c r="Q79" s="0"/>
       <c r="R79" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
+      <c r="T79" s="0" t="s">
+        <v>439</v>
+      </c>
       <c r="U79" s="0"/>
       <c r="V79" s="0"/>
       <c r="W79" s="0"/>
@@ -5939,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="0">
@@ -5949,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="H80" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="0">
         <v>0</v>
@@ -5961,15 +6131,17 @@
         <v>0</v>
       </c>
       <c r="K80" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="0">
         <v>0</v>
       </c>
       <c r="M80" s="0">
-        <v>0</v>
-      </c>
-      <c r="N80" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>363</v>
+      </c>
       <c r="O80" s="0"/>
       <c r="P80" s="0"/>
       <c r="Q80" s="0"/>
@@ -5996,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="0">
@@ -6006,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="H81" s="0">
         <v>1</v>
@@ -6053,31 +6225,29 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>164</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D82" s="0"/>
       <c r="E82" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="0">
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
       </c>
       <c r="I82" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="0">
         <v>0</v>
       </c>
       <c r="K82" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="0">
         <v>0</v>
@@ -6088,17 +6258,13 @@
       <c r="N82" s="0"/>
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
-      <c r="Q82" s="0" t="s">
-        <v>362</v>
-      </c>
+      <c r="Q82" s="0"/>
       <c r="R82" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
-      <c r="U82" s="0" t="s">
-        <v>362</v>
-      </c>
+      <c r="U82" s="0"/>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
       <c r="X82" s="0">
@@ -6113,19 +6279,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>0</v>
-      </c>
-      <c r="C83" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>181</v>
+      </c>
       <c r="D83" s="0"/>
       <c r="E83" s="0">
         <v>0</v>
       </c>
       <c r="F83" s="0">
-        <v>1</v>
-      </c>
-      <c r="G83" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>283</v>
+      </c>
       <c r="H83" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="0">
         <v>0</v>
@@ -6169,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="0">
@@ -6179,13 +6349,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H84" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="0">
         <v>0</v>
@@ -6202,17 +6372,13 @@
       <c r="N84" s="0"/>
       <c r="O84" s="0"/>
       <c r="P84" s="0"/>
-      <c r="Q84" s="0" t="s">
-        <v>363</v>
-      </c>
+      <c r="Q84" s="0"/>
       <c r="R84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
-      <c r="U84" s="0" t="s">
-        <v>363</v>
-      </c>
+      <c r="U84" s="0"/>
       <c r="V84" s="0"/>
       <c r="W84" s="0"/>
       <c r="X84" s="0">
@@ -6227,19 +6393,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>0</v>
-      </c>
-      <c r="C85" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>181</v>
+      </c>
       <c r="D85" s="0"/>
       <c r="E85" s="0">
         <v>0</v>
       </c>
       <c r="F85" s="0">
-        <v>1</v>
-      </c>
-      <c r="G85" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="H85" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="0">
         <v>0</v>
@@ -6283,23 +6453,25 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="E86" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="0">
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="H86" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="0">
         <v>0</v>
@@ -6316,13 +6488,17 @@
       <c r="N86" s="0"/>
       <c r="O86" s="0"/>
       <c r="P86" s="0"/>
-      <c r="Q86" s="0"/>
+      <c r="Q86" s="0" t="s">
+        <v>407</v>
+      </c>
       <c r="R86" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S86" s="0"/>
       <c r="T86" s="0"/>
-      <c r="U86" s="0"/>
+      <c r="U86" s="0" t="s">
+        <v>449</v>
+      </c>
       <c r="V86" s="0"/>
       <c r="W86" s="0"/>
       <c r="X86" s="0">
@@ -6337,23 +6513,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>1</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C87" s="0"/>
       <c r="D87" s="0"/>
       <c r="E87" s="0">
         <v>0</v>
       </c>
       <c r="F87" s="0">
-        <v>0</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>249</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G87" s="0"/>
       <c r="H87" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="0">
         <v>0</v>
@@ -6397,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="0">
@@ -6407,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
       </c>
       <c r="I88" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="0">
         <v>0</v>
       </c>
       <c r="K88" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="0">
         <v>0</v>
@@ -6430,13 +6602,17 @@
       <c r="N88" s="0"/>
       <c r="O88" s="0"/>
       <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
+      <c r="Q88" s="0" t="s">
+        <v>408</v>
+      </c>
       <c r="R88" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S88" s="0"/>
       <c r="T88" s="0"/>
-      <c r="U88" s="0"/>
+      <c r="U88" s="0" t="s">
+        <v>450</v>
+      </c>
       <c r="V88" s="0"/>
       <c r="W88" s="0"/>
       <c r="X88" s="0">
@@ -6451,26 +6627,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>1</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C89" s="0"/>
       <c r="D89" s="0"/>
       <c r="E89" s="0">
         <v>0</v>
       </c>
       <c r="F89" s="0">
-        <v>0</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>251</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G89" s="0"/>
       <c r="H89" s="0">
         <v>0</v>
       </c>
       <c r="I89" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="0">
         <v>0</v>
@@ -6511,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="0">
@@ -6521,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="H90" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="0">
         <v>0</v>
@@ -6568,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D91" s="0"/>
       <c r="E91" s="0">
@@ -6578,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="H91" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="0">
         <v>0</v>
@@ -6625,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D92" s="0"/>
       <c r="E92" s="0">
@@ -6634,27 +6806,13 @@
       <c r="F92" s="0">
         <v>0</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H92" s="0">
-        <v>1</v>
-      </c>
-      <c r="I92" s="0">
-        <v>0</v>
-      </c>
-      <c r="J92" s="0">
-        <v>0</v>
-      </c>
-      <c r="K92" s="0">
-        <v>0</v>
-      </c>
-      <c r="L92" s="0">
-        <v>0</v>
-      </c>
-      <c r="M92" s="0">
-        <v>0</v>
-      </c>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
       <c r="N92" s="0"/>
       <c r="O92" s="0"/>
       <c r="P92" s="0"/>
@@ -6667,9 +6825,7 @@
       <c r="U92" s="0"/>
       <c r="V92" s="0"/>
       <c r="W92" s="0"/>
-      <c r="X92" s="0">
-        <v>0</v>
-      </c>
+      <c r="X92" s="0"/>
       <c r="Y92" s="0" t="b">
         <v>0</v>
       </c>
@@ -6682,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="0">
@@ -6692,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="H93" s="0">
         <v>0</v>
@@ -6714,17 +6870,13 @@
       </c>
       <c r="N93" s="0"/>
       <c r="O93" s="0"/>
-      <c r="P93" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="P93" s="0"/>
       <c r="Q93" s="0"/>
       <c r="R93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S93" s="0"/>
-      <c r="T93" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="T93" s="0"/>
       <c r="U93" s="0"/>
       <c r="V93" s="0"/>
       <c r="W93" s="0"/>
@@ -6743,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="0">
@@ -6753,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
       </c>
       <c r="I94" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="0">
         <v>0</v>
@@ -6768,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" s="0">
         <v>0</v>
@@ -6776,17 +6928,13 @@
       <c r="N94" s="0"/>
       <c r="O94" s="0"/>
       <c r="P94" s="0"/>
-      <c r="Q94" s="0" t="s">
-        <v>364</v>
-      </c>
+      <c r="Q94" s="0"/>
       <c r="R94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S94" s="0"/>
       <c r="T94" s="0"/>
-      <c r="U94" s="0" t="s">
-        <v>364</v>
-      </c>
+      <c r="U94" s="0"/>
       <c r="V94" s="0"/>
       <c r="W94" s="0"/>
       <c r="X94" s="0">
@@ -6804,31 +6952,29 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>165</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D95" s="0"/>
       <c r="E95" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="0">
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H95" s="0">
         <v>0</v>
       </c>
       <c r="I95" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="0">
         <v>0</v>
       </c>
       <c r="K95" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="0">
         <v>0</v>
@@ -6838,17 +6984,13 @@
       </c>
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
-      <c r="P95" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="P95" s="0"/>
       <c r="Q95" s="0"/>
       <c r="R95" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S95" s="0"/>
-      <c r="T95" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="T95" s="0"/>
       <c r="U95" s="0"/>
       <c r="V95" s="0"/>
       <c r="W95" s="0"/>
@@ -6867,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D96" s="0"/>
       <c r="E96" s="0">
@@ -6877,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H96" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="0">
         <v>0</v>
@@ -6924,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D97" s="0"/>
       <c r="E97" s="0">
@@ -6934,16 +7076,16 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="H97" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="0">
         <v>0</v>
       </c>
       <c r="J97" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="0">
         <v>0</v>
@@ -6981,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D98" s="0"/>
       <c r="E98" s="0">
@@ -6990,46 +7132,26 @@
       <c r="F98" s="0">
         <v>0</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H98" s="0">
-        <v>0</v>
-      </c>
-      <c r="I98" s="0">
-        <v>0</v>
-      </c>
-      <c r="J98" s="0">
-        <v>0</v>
-      </c>
-      <c r="K98" s="0">
-        <v>1</v>
-      </c>
-      <c r="L98" s="0">
-        <v>0</v>
-      </c>
-      <c r="M98" s="0">
-        <v>0</v>
-      </c>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
       <c r="N98" s="0"/>
       <c r="O98" s="0"/>
-      <c r="P98" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="P98" s="0"/>
       <c r="Q98" s="0"/>
       <c r="R98" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S98" s="0"/>
-      <c r="T98" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="T98" s="0"/>
       <c r="U98" s="0"/>
       <c r="V98" s="0"/>
       <c r="W98" s="0"/>
-      <c r="X98" s="0">
-        <v>0</v>
-      </c>
+      <c r="X98" s="0"/>
       <c r="Y98" s="0" t="b">
         <v>0</v>
       </c>
@@ -7042,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D99" s="0"/>
       <c r="E99" s="0">
@@ -7052,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -7064,39 +7186,35 @@
         <v>0</v>
       </c>
       <c r="K99" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" s="0">
         <v>0</v>
       </c>
       <c r="N99" s="0"/>
-      <c r="O99" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="P99" s="0"/>
-      <c r="Q99" s="0" t="s">
-        <v>365</v>
-      </c>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q99" s="0"/>
       <c r="R99" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S99" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="T99" s="0"/>
-      <c r="U99" s="0" t="s">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="U99" s="0"/>
       <c r="V99" s="0"/>
       <c r="W99" s="0"/>
       <c r="X99" s="0">
         <v>0</v>
       </c>
       <c r="Y99" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -7107,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D100" s="0"/>
       <c r="E100" s="0">
@@ -7117,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="H100" s="0">
         <v>0</v>
@@ -7138,22 +7256,18 @@
         <v>0</v>
       </c>
       <c r="N100" s="0"/>
-      <c r="O100" s="0" t="s">
-        <v>335</v>
-      </c>
+      <c r="O100" s="0"/>
       <c r="P100" s="0"/>
       <c r="Q100" s="0" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="R100" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S100" s="0" t="s">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S100" s="0"/>
       <c r="T100" s="0"/>
       <c r="U100" s="0" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="V100" s="0"/>
       <c r="W100" s="0"/>
@@ -7161,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -7172,29 +7286,31 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="E101" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="0">
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="H101" s="0">
         <v>0</v>
       </c>
       <c r="I101" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="0">
         <v>0</v>
       </c>
       <c r="K101" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="0">
         <v>0</v>
@@ -7203,18 +7319,18 @@
         <v>0</v>
       </c>
       <c r="N101" s="0"/>
-      <c r="O101" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="P101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0" t="s">
+        <v>397</v>
+      </c>
       <c r="Q101" s="0"/>
       <c r="R101" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S101" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="T101" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="0"/>
+      <c r="T101" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="U101" s="0"/>
       <c r="V101" s="0"/>
       <c r="W101" s="0"/>
@@ -7222,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -7233,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D102" s="0"/>
       <c r="E102" s="0">
@@ -7243,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="H102" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="0">
         <v>0</v>
@@ -7255,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="0">
         <v>0</v>
@@ -7264,22 +7380,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="0"/>
-      <c r="O102" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="P102" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="O102" s="0"/>
+      <c r="P102" s="0"/>
       <c r="Q102" s="0"/>
       <c r="R102" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S102" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="T102" s="0" t="s">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S102" s="0"/>
+      <c r="T102" s="0"/>
       <c r="U102" s="0"/>
       <c r="V102" s="0"/>
       <c r="W102" s="0"/>
@@ -7287,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -7298,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D103" s="0"/>
       <c r="E103" s="0">
@@ -7308,16 +7416,16 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="H103" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="0">
         <v>0</v>
       </c>
       <c r="J103" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="0">
         <v>0</v>
@@ -7326,11 +7434,9 @@
         <v>0</v>
       </c>
       <c r="M103" s="0">
-        <v>1</v>
-      </c>
-      <c r="N103" s="0" t="s">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N103" s="0"/>
       <c r="O103" s="0"/>
       <c r="P103" s="0"/>
       <c r="Q103" s="0"/>
@@ -7357,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D104" s="0"/>
       <c r="E104" s="0">
@@ -7367,37 +7473,39 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="H104" s="0">
         <v>0</v>
       </c>
       <c r="I104" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="0">
         <v>0</v>
       </c>
       <c r="K104" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="0">
         <v>0</v>
       </c>
       <c r="M104" s="0">
-        <v>1</v>
-      </c>
-      <c r="N104" s="0" t="s">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N104" s="0"/>
       <c r="O104" s="0"/>
-      <c r="P104" s="0"/>
+      <c r="P104" s="0" t="s">
+        <v>397</v>
+      </c>
       <c r="Q104" s="0"/>
       <c r="R104" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S104" s="0"/>
-      <c r="T104" s="0"/>
+      <c r="T104" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="U104" s="0"/>
       <c r="V104" s="0"/>
       <c r="W104" s="0"/>
@@ -7416,19 +7524,17 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>162</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D105" s="0"/>
       <c r="E105" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="0">
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="H105" s="0">
         <v>0</v>
@@ -7440,35 +7546,39 @@
         <v>0</v>
       </c>
       <c r="K105" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" s="0">
         <v>0</v>
       </c>
       <c r="N105" s="0"/>
-      <c r="O105" s="0"/>
-      <c r="P105" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q105" s="0"/>
+      <c r="O105" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0" t="s">
+        <v>410</v>
+      </c>
       <c r="R105" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S105" s="0"/>
-      <c r="T105" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="U105" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="T105" s="0"/>
+      <c r="U105" s="0" t="s">
+        <v>452</v>
+      </c>
       <c r="V105" s="0"/>
       <c r="W105" s="0"/>
       <c r="X105" s="0">
         <v>0</v>
       </c>
       <c r="Y105" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7479,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="0">
@@ -7489,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H106" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="0">
         <v>0</v>
@@ -7504,28 +7614,36 @@
         <v>0</v>
       </c>
       <c r="L106" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="0">
         <v>0</v>
       </c>
       <c r="N106" s="0"/>
-      <c r="O106" s="0"/>
+      <c r="O106" s="0" t="s">
+        <v>375</v>
+      </c>
       <c r="P106" s="0"/>
-      <c r="Q106" s="0"/>
+      <c r="Q106" s="0" t="s">
+        <v>411</v>
+      </c>
       <c r="R106" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S106" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>419</v>
+      </c>
       <c r="T106" s="0"/>
-      <c r="U106" s="0"/>
+      <c r="U106" s="0" t="s">
+        <v>453</v>
+      </c>
       <c r="V106" s="0"/>
       <c r="W106" s="0"/>
       <c r="X106" s="0">
         <v>0</v>
       </c>
       <c r="Y106" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7536,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D107" s="0"/>
       <c r="E107" s="0">
@@ -7546,13 +7664,13 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="H107" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="0">
         <v>0</v>
@@ -7567,13 +7685,17 @@
         <v>0</v>
       </c>
       <c r="N107" s="0"/>
-      <c r="O107" s="0"/>
+      <c r="O107" s="0" t="s">
+        <v>376</v>
+      </c>
       <c r="P107" s="0"/>
       <c r="Q107" s="0"/>
       <c r="R107" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S107" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>420</v>
+      </c>
       <c r="T107" s="0"/>
       <c r="U107" s="0"/>
       <c r="V107" s="0"/>
@@ -7582,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -7593,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="0">
@@ -7603,19 +7725,19 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="H108" s="0">
         <v>0</v>
       </c>
       <c r="I108" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="0">
         <v>0</v>
       </c>
       <c r="K108" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="0">
         <v>0</v>
@@ -7624,14 +7746,22 @@
         <v>0</v>
       </c>
       <c r="N108" s="0"/>
-      <c r="O108" s="0"/>
-      <c r="P108" s="0"/>
+      <c r="O108" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="P108" s="0" t="s">
+        <v>397</v>
+      </c>
       <c r="Q108" s="0"/>
       <c r="R108" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S108" s="0"/>
-      <c r="T108" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="T108" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="U108" s="0"/>
       <c r="V108" s="0"/>
       <c r="W108" s="0"/>
@@ -7639,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="Y108" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -7650,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="0">
@@ -7660,13 +7790,13 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="H109" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="0">
         <v>0</v>
@@ -7678,9 +7808,11 @@
         <v>0</v>
       </c>
       <c r="M109" s="0">
-        <v>0</v>
-      </c>
-      <c r="N109" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="O109" s="0"/>
       <c r="P109" s="0"/>
       <c r="Q109" s="0"/>
@@ -7707,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D110" s="0"/>
       <c r="E110" s="0">
@@ -7717,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="H110" s="0">
         <v>0</v>
@@ -7735,9 +7867,11 @@
         <v>0</v>
       </c>
       <c r="M110" s="0">
-        <v>0</v>
-      </c>
-      <c r="N110" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>365</v>
+      </c>
       <c r="O110" s="0"/>
       <c r="P110" s="0"/>
       <c r="Q110" s="0"/>
@@ -7764,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="0">
@@ -7774,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H111" s="0">
         <v>0</v>
@@ -7795,18 +7929,18 @@
         <v>0</v>
       </c>
       <c r="N111" s="0"/>
-      <c r="O111" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="P111" s="0"/>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0" t="s">
+        <v>397</v>
+      </c>
       <c r="Q111" s="0"/>
       <c r="R111" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S111" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="T111" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="0"/>
+      <c r="T111" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="U111" s="0"/>
       <c r="V111" s="0"/>
       <c r="W111" s="0"/>
@@ -7814,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7825,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="0">
@@ -7835,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="H112" s="0">
         <v>1</v>
@@ -7879,19 +8013,23 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>0</v>
-      </c>
-      <c r="C113" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="D113" s="0"/>
       <c r="E113" s="0">
         <v>0</v>
       </c>
       <c r="F113" s="0">
-        <v>1</v>
-      </c>
-      <c r="G113" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>309</v>
+      </c>
       <c r="H113" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="0">
         <v>0</v>
@@ -7935,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="0">
@@ -7945,16 +8083,16 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H114" s="0">
         <v>0</v>
       </c>
       <c r="I114" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="0">
         <v>0</v>
@@ -7992,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D115" s="0"/>
       <c r="E115" s="0">
@@ -8002,13 +8140,13 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="H115" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="0">
         <v>0</v>
@@ -8049,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D116" s="0"/>
       <c r="E116" s="0">
@@ -8059,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="H116" s="0">
         <v>0</v>
@@ -8080,17 +8218,13 @@
         <v>0</v>
       </c>
       <c r="N116" s="0"/>
-      <c r="O116" s="0" t="s">
-        <v>339</v>
-      </c>
+      <c r="O116" s="0"/>
       <c r="P116" s="0"/>
       <c r="Q116" s="0"/>
       <c r="R116" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S116" s="0" t="s">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S116" s="0"/>
       <c r="T116" s="0"/>
       <c r="U116" s="0"/>
       <c r="V116" s="0"/>
@@ -8099,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -8110,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="0">
@@ -8120,19 +8254,19 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="H117" s="0">
         <v>0</v>
       </c>
       <c r="I117" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="0">
         <v>0</v>
       </c>
       <c r="K117" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="0">
         <v>0</v>
@@ -8142,7 +8276,7 @@
       </c>
       <c r="N117" s="0"/>
       <c r="O117" s="0" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
@@ -8150,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="T117" s="0"/>
       <c r="U117" s="0"/>
@@ -8171,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="0">
@@ -8181,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H118" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="0">
         <v>0</v>
@@ -8193,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="0">
         <v>0</v>
@@ -8203,17 +8337,13 @@
       </c>
       <c r="N118" s="0"/>
       <c r="O118" s="0"/>
-      <c r="P118" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="P118" s="0"/>
       <c r="Q118" s="0"/>
       <c r="R118" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S118" s="0"/>
-      <c r="T118" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="T118" s="0"/>
       <c r="U118" s="0"/>
       <c r="V118" s="0"/>
       <c r="W118" s="0"/>
@@ -8229,23 +8359,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>1</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C119" s="0"/>
       <c r="D119" s="0"/>
       <c r="E119" s="0">
         <v>0</v>
       </c>
       <c r="F119" s="0">
-        <v>0</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>280</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G119" s="0"/>
       <c r="H119" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="0">
         <v>0</v>
@@ -8260,23 +8386,17 @@
         <v>0</v>
       </c>
       <c r="M119" s="0">
-        <v>1</v>
-      </c>
-      <c r="N119" s="0" t="s">
-        <v>326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N119" s="0"/>
       <c r="O119" s="0"/>
-      <c r="P119" s="0" t="s">
-        <v>350</v>
-      </c>
+      <c r="P119" s="0"/>
       <c r="Q119" s="0"/>
       <c r="R119" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S119" s="0"/>
-      <c r="T119" s="0" t="s">
-        <v>350</v>
-      </c>
+      <c r="T119" s="0"/>
       <c r="U119" s="0"/>
       <c r="V119" s="0"/>
       <c r="W119" s="0"/>
@@ -8295,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D120" s="0"/>
       <c r="E120" s="0">
@@ -8305,16 +8425,16 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="H120" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="0">
         <v>0</v>
       </c>
       <c r="J120" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="0">
         <v>0</v>
@@ -8323,23 +8443,17 @@
         <v>0</v>
       </c>
       <c r="M120" s="0">
-        <v>1</v>
-      </c>
-      <c r="N120" s="0" t="s">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N120" s="0"/>
       <c r="O120" s="0"/>
-      <c r="P120" s="0" t="s">
-        <v>350</v>
-      </c>
+      <c r="P120" s="0"/>
       <c r="Q120" s="0"/>
       <c r="R120" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S120" s="0"/>
-      <c r="T120" s="0" t="s">
-        <v>350</v>
-      </c>
+      <c r="T120" s="0"/>
       <c r="U120" s="0"/>
       <c r="V120" s="0"/>
       <c r="W120" s="0"/>
@@ -8358,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D121" s="0"/>
       <c r="E121" s="0">
@@ -8368,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="H121" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="0">
         <v>0</v>
@@ -8380,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="0">
         <v>0</v>
@@ -8389,22 +8503,14 @@
         <v>0</v>
       </c>
       <c r="N121" s="0"/>
-      <c r="O121" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="P121" s="0" t="s">
-        <v>356</v>
-      </c>
+      <c r="O121" s="0"/>
+      <c r="P121" s="0"/>
       <c r="Q121" s="0"/>
       <c r="R121" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S121" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="T121" s="0" t="s">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S121" s="0"/>
+      <c r="T121" s="0"/>
       <c r="U121" s="0"/>
       <c r="V121" s="0"/>
       <c r="W121" s="0"/>
@@ -8412,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="Y121" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -8423,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D122" s="0"/>
       <c r="E122" s="0">
@@ -8433,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="H122" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="0">
         <v>0</v>
@@ -8454,13 +8560,17 @@
         <v>0</v>
       </c>
       <c r="N122" s="0"/>
-      <c r="O122" s="0"/>
+      <c r="O122" s="0" t="s">
+        <v>379</v>
+      </c>
       <c r="P122" s="0"/>
       <c r="Q122" s="0"/>
       <c r="R122" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S122" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>423</v>
+      </c>
       <c r="T122" s="0"/>
       <c r="U122" s="0"/>
       <c r="V122" s="0"/>
@@ -8469,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -8480,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D123" s="0"/>
       <c r="E123" s="0">
@@ -8490,13 +8600,13 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="H123" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="0">
         <v>0</v>
@@ -8511,13 +8621,17 @@
         <v>0</v>
       </c>
       <c r="N123" s="0"/>
-      <c r="O123" s="0"/>
+      <c r="O123" s="0" t="s">
+        <v>380</v>
+      </c>
       <c r="P123" s="0"/>
       <c r="Q123" s="0"/>
       <c r="R123" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S123" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>424</v>
+      </c>
       <c r="T123" s="0"/>
       <c r="U123" s="0"/>
       <c r="V123" s="0"/>
@@ -8526,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -8537,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D124" s="0"/>
       <c r="E124" s="0">
@@ -8546,27 +8660,13 @@
       <c r="F124" s="0">
         <v>0</v>
       </c>
-      <c r="G124" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H124" s="0">
-        <v>1</v>
-      </c>
-      <c r="I124" s="0">
-        <v>0</v>
-      </c>
-      <c r="J124" s="0">
-        <v>0</v>
-      </c>
-      <c r="K124" s="0">
-        <v>0</v>
-      </c>
-      <c r="L124" s="0">
-        <v>0</v>
-      </c>
-      <c r="M124" s="0">
-        <v>0</v>
-      </c>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
       <c r="N124" s="0"/>
       <c r="O124" s="0"/>
       <c r="P124" s="0"/>
@@ -8579,9 +8679,7 @@
       <c r="U124" s="0"/>
       <c r="V124" s="0"/>
       <c r="W124" s="0"/>
-      <c r="X124" s="0">
-        <v>0</v>
-      </c>
+      <c r="X124" s="0"/>
       <c r="Y124" s="0" t="b">
         <v>0</v>
       </c>
@@ -8594,22 +8692,20 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>166</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D125" s="0"/>
       <c r="E125" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="0">
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="H125" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="0">
         <v>0</v>
@@ -8618,20 +8714,18 @@
         <v>0</v>
       </c>
       <c r="K125" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="0">
         <v>0</v>
       </c>
       <c r="M125" s="0">
-        <v>1</v>
-      </c>
-      <c r="N125" s="0" t="s">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N125" s="0"/>
       <c r="O125" s="0"/>
       <c r="P125" s="0" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="Q125" s="0"/>
       <c r="R125" s="0" t="b">
@@ -8639,7 +8733,7 @@
       </c>
       <c r="S125" s="0"/>
       <c r="T125" s="0" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="U125" s="0"/>
       <c r="V125" s="0"/>
@@ -8659,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D126" s="0"/>
       <c r="E126" s="0">
@@ -8669,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="H126" s="0">
         <v>1</v>
@@ -8687,17 +8781,23 @@
         <v>0</v>
       </c>
       <c r="M126" s="0">
-        <v>0</v>
-      </c>
-      <c r="N126" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>366</v>
+      </c>
       <c r="O126" s="0"/>
-      <c r="P126" s="0"/>
+      <c r="P126" s="0" t="s">
+        <v>398</v>
+      </c>
       <c r="Q126" s="0"/>
       <c r="R126" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S126" s="0"/>
-      <c r="T126" s="0"/>
+      <c r="T126" s="0" t="s">
+        <v>441</v>
+      </c>
       <c r="U126" s="0"/>
       <c r="V126" s="0"/>
       <c r="W126" s="0"/>
@@ -8716,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="0">
@@ -8726,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="H127" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="0">
         <v>0</v>
@@ -8738,30 +8838,28 @@
         <v>0</v>
       </c>
       <c r="K127" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="0">
         <v>0</v>
       </c>
       <c r="M127" s="0">
-        <v>0</v>
-      </c>
-      <c r="N127" s="0"/>
-      <c r="O127" s="0" t="s">
-        <v>342</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="O127" s="0"/>
       <c r="P127" s="0" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Q127" s="0"/>
       <c r="R127" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S127" s="0"/>
       <c r="T127" s="0" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
@@ -8770,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8781,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0">
@@ -8791,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="H128" s="0">
         <v>0</v>
@@ -8812,17 +8910,21 @@
         <v>0</v>
       </c>
       <c r="N128" s="0"/>
-      <c r="O128" s="0"/>
+      <c r="O128" s="0" t="s">
+        <v>381</v>
+      </c>
       <c r="P128" s="0" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="Q128" s="0"/>
       <c r="R128" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S128" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>425</v>
+      </c>
       <c r="T128" s="0" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="U128" s="0"/>
       <c r="V128" s="0"/>
@@ -8831,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -8842,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0">
@@ -8852,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="H129" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="0">
         <v>0</v>
       </c>
       <c r="J129" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="0">
         <v>0</v>
@@ -8899,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="0">
@@ -8909,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="H130" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="0">
         <v>0</v>
@@ -8956,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D131" s="0"/>
       <c r="E131" s="0">
@@ -8966,10 +9068,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="H131" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="0">
         <v>0</v>
@@ -9013,23 +9115,25 @@
         <v>1</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D132" s="0"/>
+        <v>192</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="E132" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="0">
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="H132" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="0">
         <v>0</v>
@@ -9041,17 +9145,23 @@
         <v>0</v>
       </c>
       <c r="M132" s="0">
-        <v>0</v>
-      </c>
-      <c r="N132" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>368</v>
+      </c>
       <c r="O132" s="0"/>
-      <c r="P132" s="0"/>
+      <c r="P132" s="0" t="s">
+        <v>400</v>
+      </c>
       <c r="Q132" s="0"/>
       <c r="R132" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S132" s="0"/>
-      <c r="T132" s="0"/>
+      <c r="T132" s="0" t="s">
+        <v>443</v>
+      </c>
       <c r="U132" s="0"/>
       <c r="V132" s="0"/>
       <c r="W132" s="0"/>
@@ -9070,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D133" s="0"/>
       <c r="E133" s="0">
@@ -9080,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="H133" s="0">
         <v>1</v>
@@ -9101,15 +9211,11 @@
         <v>0</v>
       </c>
       <c r="N133" s="0"/>
-      <c r="O133" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="P133" s="0" t="s">
-        <v>357</v>
-      </c>
+      <c r="O133" s="0"/>
+      <c r="P133" s="0"/>
       <c r="Q133" s="0"/>
       <c r="R133" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="0"/>
       <c r="T133" s="0"/>
@@ -9131,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="D134" s="0"/>
       <c r="E134" s="0">
@@ -9141,19 +9247,19 @@
         <v>0</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="H134" s="0">
         <v>0</v>
       </c>
       <c r="I134" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" s="0">
         <v>0</v>
       </c>
       <c r="K134" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="0">
         <v>0</v>
@@ -9162,14 +9268,22 @@
         <v>0</v>
       </c>
       <c r="N134" s="0"/>
-      <c r="O134" s="0"/>
-      <c r="P134" s="0"/>
+      <c r="O134" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="P134" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="Q134" s="0"/>
       <c r="R134" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S134" s="0"/>
-      <c r="T134" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="T134" s="0" t="s">
+        <v>444</v>
+      </c>
       <c r="U134" s="0"/>
       <c r="V134" s="0"/>
       <c r="W134" s="0"/>
@@ -9177,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="Y134" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -9185,17 +9299,21 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>0</v>
-      </c>
-      <c r="C135" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D135" s="0"/>
       <c r="E135" s="0">
         <v>0</v>
       </c>
       <c r="F135" s="0">
-        <v>1</v>
-      </c>
-      <c r="G135" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="H135" s="0">
         <v>0</v>
       </c>
@@ -9206,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="0">
         <v>0</v>
@@ -9216,13 +9334,17 @@
       </c>
       <c r="N135" s="0"/>
       <c r="O135" s="0"/>
-      <c r="P135" s="0"/>
+      <c r="P135" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="Q135" s="0"/>
       <c r="R135" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S135" s="0"/>
-      <c r="T135" s="0"/>
+      <c r="T135" s="0" t="s">
+        <v>444</v>
+      </c>
       <c r="U135" s="0"/>
       <c r="V135" s="0"/>
       <c r="W135" s="0"/>
@@ -9241,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D136" s="0"/>
       <c r="E136" s="0">
@@ -9251,16 +9373,16 @@
         <v>0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="H136" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" s="0">
         <v>0</v>
       </c>
       <c r="J136" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="0">
         <v>0</v>
@@ -9298,19 +9420,17 @@
         <v>1</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>166</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D137" s="0"/>
       <c r="E137" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" s="0">
         <v>0</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="H137" s="0">
         <v>0</v>
@@ -9357,22 +9477,20 @@
         <v>1</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D138" s="0"/>
       <c r="E138" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="0">
         <v>0</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="H138" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" s="0">
         <v>0</v>
@@ -9416,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D139" s="0"/>
       <c r="E139" s="0">
@@ -9426,16 +9544,16 @@
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="H139" s="0">
         <v>0</v>
       </c>
       <c r="I139" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="0">
         <v>0</v>
@@ -9473,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D140" s="0"/>
       <c r="E140" s="0">
@@ -9483,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H140" s="0">
         <v>1</v>
@@ -9504,11 +9622,15 @@
         <v>0</v>
       </c>
       <c r="N140" s="0"/>
-      <c r="O140" s="0"/>
-      <c r="P140" s="0"/>
+      <c r="O140" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="P140" s="0" t="s">
+        <v>402</v>
+      </c>
       <c r="Q140" s="0"/>
       <c r="R140" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="0"/>
       <c r="T140" s="0"/>
@@ -9530,25 +9652,23 @@
         <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>162</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D141" s="0"/>
       <c r="E141" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" s="0">
         <v>0</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="H141" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="0">
         <v>0</v>
@@ -9586,21 +9706,17 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>1</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C142" s="0"/>
       <c r="D142" s="0"/>
       <c r="E142" s="0">
         <v>0</v>
       </c>
       <c r="F142" s="0">
-        <v>0</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>301</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G142" s="0"/>
       <c r="H142" s="0">
         <v>0</v>
       </c>
@@ -9611,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="0">
         <v>0</v>
@@ -9646,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D143" s="0"/>
       <c r="E143" s="0">
@@ -9656,16 +9772,16 @@
         <v>0</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="H143" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" s="0">
         <v>0</v>
       </c>
       <c r="J143" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="0">
         <v>0</v>
@@ -9703,10 +9819,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="E144" s="0">
         <v>1</v>
@@ -9715,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="H144" s="0">
         <v>0</v>
@@ -9762,17 +9878,19 @@
         <v>1</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D145" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>206</v>
+      </c>
       <c r="E145" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" s="0">
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="H145" s="0">
         <v>1</v>
@@ -9816,17 +9934,21 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>0</v>
-      </c>
-      <c r="C146" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>197</v>
+      </c>
       <c r="D146" s="0"/>
       <c r="E146" s="0">
         <v>0</v>
       </c>
       <c r="F146" s="0">
-        <v>1</v>
-      </c>
-      <c r="G146" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>339</v>
+      </c>
       <c r="H146" s="0">
         <v>0</v>
       </c>
@@ -9834,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="0">
         <v>0</v>
@@ -9872,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D147" s="0"/>
       <c r="E147" s="0">
@@ -9882,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="H147" s="0">
         <v>1</v>
@@ -9929,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D148" s="0"/>
       <c r="E148" s="0">
@@ -9939,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="H148" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" s="0">
         <v>0</v>
@@ -9951,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="0">
         <v>0</v>
@@ -9986,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D149" s="0"/>
       <c r="E149" s="0">
@@ -9996,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="H149" s="0">
         <v>0</v>
       </c>
       <c r="I149" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="0">
         <v>0</v>
       </c>
       <c r="K149" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="0">
         <v>0</v>
@@ -10017,17 +10139,13 @@
         <v>0</v>
       </c>
       <c r="N149" s="0"/>
-      <c r="O149" s="0" t="s">
-        <v>344</v>
-      </c>
+      <c r="O149" s="0"/>
       <c r="P149" s="0"/>
       <c r="Q149" s="0"/>
       <c r="R149" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S149" s="0" t="s">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S149" s="0"/>
       <c r="T149" s="0"/>
       <c r="U149" s="0"/>
       <c r="V149" s="0"/>
@@ -10036,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="Y149" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -10047,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D150" s="0"/>
       <c r="E150" s="0">
@@ -10057,16 +10175,16 @@
         <v>0</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="H150" s="0">
         <v>0</v>
       </c>
       <c r="I150" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="0">
         <v>0</v>
@@ -10078,17 +10196,13 @@
         <v>0</v>
       </c>
       <c r="N150" s="0"/>
-      <c r="O150" s="0" t="s">
-        <v>345</v>
-      </c>
+      <c r="O150" s="0"/>
       <c r="P150" s="0"/>
       <c r="Q150" s="0"/>
       <c r="R150" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S150" s="0" t="s">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S150" s="0"/>
       <c r="T150" s="0"/>
       <c r="U150" s="0"/>
       <c r="V150" s="0"/>
@@ -10097,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Y150" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -10108,17 +10222,19 @@
         <v>1</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D151" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>207</v>
+      </c>
       <c r="E151" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="0">
         <v>0</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="H151" s="0">
         <v>0</v>
@@ -10162,19 +10278,23 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>0</v>
-      </c>
-      <c r="C152" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>197</v>
+      </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0">
         <v>0</v>
       </c>
       <c r="F152" s="0">
-        <v>1</v>
-      </c>
-      <c r="G152" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>344</v>
+      </c>
       <c r="H152" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" s="0">
         <v>0</v>
@@ -10210,6 +10330,405 @@
         <v>0</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0</v>
+      </c>
+      <c r="C153" s="0"/>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0">
+        <v>0</v>
+      </c>
+      <c r="F153" s="0">
+        <v>1</v>
+      </c>
+      <c r="G153" s="0"/>
+      <c r="H153" s="0">
+        <v>0</v>
+      </c>
+      <c r="I153" s="0">
+        <v>0</v>
+      </c>
+      <c r="J153" s="0">
+        <v>0</v>
+      </c>
+      <c r="K153" s="0">
+        <v>0</v>
+      </c>
+      <c r="L153" s="0">
+        <v>0</v>
+      </c>
+      <c r="M153" s="0">
+        <v>0</v>
+      </c>
+      <c r="N153" s="0"/>
+      <c r="O153" s="0"/>
+      <c r="P153" s="0"/>
+      <c r="Q153" s="0"/>
+      <c r="R153" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S153" s="0"/>
+      <c r="T153" s="0"/>
+      <c r="U153" s="0"/>
+      <c r="V153" s="0"/>
+      <c r="W153" s="0"/>
+      <c r="X153" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0">
+        <v>1</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0">
+        <v>0</v>
+      </c>
+      <c r="F154" s="0">
+        <v>0</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H154" s="0">
+        <v>1</v>
+      </c>
+      <c r="I154" s="0">
+        <v>0</v>
+      </c>
+      <c r="J154" s="0">
+        <v>0</v>
+      </c>
+      <c r="K154" s="0">
+        <v>0</v>
+      </c>
+      <c r="L154" s="0">
+        <v>0</v>
+      </c>
+      <c r="M154" s="0">
+        <v>0</v>
+      </c>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+      <c r="R154" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S154" s="0"/>
+      <c r="T154" s="0"/>
+      <c r="U154" s="0"/>
+      <c r="V154" s="0"/>
+      <c r="W154" s="0"/>
+      <c r="X154" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y154" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0">
+        <v>1</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0">
+        <v>0</v>
+      </c>
+      <c r="F155" s="0">
+        <v>0</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H155" s="0">
+        <v>0</v>
+      </c>
+      <c r="I155" s="0">
+        <v>0</v>
+      </c>
+      <c r="J155" s="0">
+        <v>0</v>
+      </c>
+      <c r="K155" s="0">
+        <v>1</v>
+      </c>
+      <c r="L155" s="0">
+        <v>0</v>
+      </c>
+      <c r="M155" s="0">
+        <v>0</v>
+      </c>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+      <c r="R155" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S155" s="0"/>
+      <c r="T155" s="0"/>
+      <c r="U155" s="0"/>
+      <c r="V155" s="0"/>
+      <c r="W155" s="0"/>
+      <c r="X155" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0">
+        <v>1</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0">
+        <v>0</v>
+      </c>
+      <c r="F156" s="0">
+        <v>0</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="H156" s="0">
+        <v>0</v>
+      </c>
+      <c r="I156" s="0">
+        <v>1</v>
+      </c>
+      <c r="J156" s="0">
+        <v>0</v>
+      </c>
+      <c r="K156" s="0">
+        <v>0</v>
+      </c>
+      <c r="L156" s="0">
+        <v>0</v>
+      </c>
+      <c r="M156" s="0">
+        <v>0</v>
+      </c>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="P156" s="0"/>
+      <c r="Q156" s="0"/>
+      <c r="R156" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="T156" s="0"/>
+      <c r="U156" s="0"/>
+      <c r="V156" s="0"/>
+      <c r="W156" s="0"/>
+      <c r="X156" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0">
+        <v>1</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0">
+        <v>0</v>
+      </c>
+      <c r="F157" s="0">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H157" s="0">
+        <v>0</v>
+      </c>
+      <c r="I157" s="0">
+        <v>1</v>
+      </c>
+      <c r="J157" s="0">
+        <v>0</v>
+      </c>
+      <c r="K157" s="0">
+        <v>0</v>
+      </c>
+      <c r="L157" s="0">
+        <v>0</v>
+      </c>
+      <c r="M157" s="0">
+        <v>0</v>
+      </c>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="P157" s="0"/>
+      <c r="Q157" s="0"/>
+      <c r="R157" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="T157" s="0"/>
+      <c r="U157" s="0"/>
+      <c r="V157" s="0"/>
+      <c r="W157" s="0"/>
+      <c r="X157" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0">
+        <v>1</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0">
+        <v>0</v>
+      </c>
+      <c r="F158" s="0">
+        <v>0</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H158" s="0">
+        <v>0</v>
+      </c>
+      <c r="I158" s="0">
+        <v>1</v>
+      </c>
+      <c r="J158" s="0">
+        <v>0</v>
+      </c>
+      <c r="K158" s="0">
+        <v>0</v>
+      </c>
+      <c r="L158" s="0">
+        <v>0</v>
+      </c>
+      <c r="M158" s="0">
+        <v>0</v>
+      </c>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
+      <c r="P158" s="0"/>
+      <c r="Q158" s="0"/>
+      <c r="R158" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S158" s="0"/>
+      <c r="T158" s="0"/>
+      <c r="U158" s="0"/>
+      <c r="V158" s="0"/>
+      <c r="W158" s="0"/>
+      <c r="X158" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0">
+        <v>0</v>
+      </c>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0">
+        <v>0</v>
+      </c>
+      <c r="F159" s="0">
+        <v>1</v>
+      </c>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0">
+        <v>0</v>
+      </c>
+      <c r="I159" s="0">
+        <v>0</v>
+      </c>
+      <c r="J159" s="0">
+        <v>0</v>
+      </c>
+      <c r="K159" s="0">
+        <v>0</v>
+      </c>
+      <c r="L159" s="0">
+        <v>0</v>
+      </c>
+      <c r="M159" s="0">
+        <v>0</v>
+      </c>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+      <c r="R159" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S159" s="0"/>
+      <c r="T159" s="0"/>
+      <c r="U159" s="0"/>
+      <c r="V159" s="0"/>
+      <c r="W159" s="0"/>
+      <c r="X159" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>